--- a/data-processed/new_refs_contribution_to_seanuts_edited.xlsx
+++ b/data-processed/new_refs_contribution_to_seanuts_edited.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="203">
   <si>
     <t>bibliography</t>
   </si>
@@ -1002,6 +1002,42 @@
   </si>
   <si>
     <t>edible muscle</t>
+  </si>
+  <si>
+    <t>biblio_id</t>
+  </si>
+  <si>
+    <t>sea1</t>
+  </si>
+  <si>
+    <t>sea2</t>
+  </si>
+  <si>
+    <t>sea3</t>
+  </si>
+  <si>
+    <t>sea4</t>
+  </si>
+  <si>
+    <t>sea5</t>
+  </si>
+  <si>
+    <t>sea6</t>
+  </si>
+  <si>
+    <t>sea7</t>
+  </si>
+  <si>
+    <t>sea8</t>
+  </si>
+  <si>
+    <t>sea9</t>
+  </si>
+  <si>
+    <t>sea10</t>
+  </si>
+  <si>
+    <t>sea11</t>
   </si>
 </sst>
 </file>
@@ -1330,122 +1366,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L163"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B143" sqref="B143:B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
         <v>178</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>188</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2">
         <v>1738</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>32.799999999999997</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2">
         <v>2.46</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2">
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3">
+        <v>192</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3">
         <v>1739</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>34.4</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
@@ -1455,1041 +1497,1128 @@
       <c r="L3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4">
+        <v>192</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
         <v>1740</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>61</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
         <v>7.65</v>
       </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4">
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4">
         <v>82.46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5">
+        <v>192</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
         <v>1741</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5">
         <v>0.1071</v>
       </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5">
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5">
         <v>1.2186999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6">
+        <v>193</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
         <v>1770</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
       <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>236.8</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6">
         <v>7.79</v>
       </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6">
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7">
+        <v>193</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
         <v>1771</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
       <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>91.3</v>
       </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7">
         <v>4.12</v>
       </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7">
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7">
         <v>98.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8">
+        <v>193</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
         <v>1772</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
       <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>128.30000000000001</v>
       </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8">
         <v>4.76</v>
       </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8">
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9">
+        <v>193</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
         <v>1773</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
       <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
         <v>22</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>205.5</v>
       </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9">
         <v>5.19</v>
       </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9">
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
         <v>92.8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10">
+        <v>193</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10">
         <v>1774</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
       <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
         <v>23</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>133.6</v>
       </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10">
         <v>4.96</v>
       </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10">
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10">
         <v>61.2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11">
+        <v>193</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11">
         <v>1775</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
       <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>60.6</v>
       </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11">
         <v>3.78</v>
       </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11">
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11">
         <v>45.7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12">
+        <v>193</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12">
         <v>1776</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
       <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>261.60000000000002</v>
       </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12">
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12">
         <v>3.21</v>
       </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12">
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12">
         <v>101.9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13">
+        <v>193</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13">
         <v>1777</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
       <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>126.7</v>
       </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13">
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13">
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14">
+        <v>193</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14">
         <v>1778</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
       <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
         <v>19</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>53.1</v>
       </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14">
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14">
         <v>3.29</v>
       </c>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14">
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14">
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15">
+        <v>193</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15">
         <v>1779</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
       <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
         <v>20</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>50.5</v>
       </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15">
         <v>1.65</v>
       </c>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15">
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15">
         <v>3.08</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16">
+        <v>193</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16">
         <v>1780</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
       <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
         <v>28</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>67.3</v>
       </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16">
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16">
         <v>9.41</v>
       </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16">
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16">
         <v>1.77</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17">
+        <v>193</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17">
         <v>1781</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
       <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
         <v>29</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>44.7</v>
       </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17">
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17">
         <v>1.61</v>
       </c>
-      <c r="K17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17">
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17">
         <v>5.28</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18">
+        <v>193</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18">
         <v>1782</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
       <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
         <v>25</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>73.2</v>
       </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18">
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18">
         <v>9.44</v>
       </c>
-      <c r="K18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18">
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18">
         <v>2.59</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19">
+        <v>193</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19">
         <v>1783</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>27</v>
       </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
       <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
         <v>22</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>81.099999999999994</v>
       </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19">
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19">
         <v>10.9</v>
       </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19">
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19">
         <v>2.39</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20">
+        <v>193</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20">
         <v>1784</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
       <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
         <v>23</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>43.8</v>
       </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20">
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20">
         <v>3.61</v>
       </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20">
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20">
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21">
+        <v>193</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21">
         <v>1785</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
       <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
         <v>24</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>65.5</v>
       </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21">
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21">
         <v>5.94</v>
       </c>
-      <c r="K21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21">
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21">
         <v>2.33</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22">
+        <v>193</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22">
         <v>1786</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>27</v>
       </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
       <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
         <v>26</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>42.9</v>
       </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22">
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22">
         <v>1.64</v>
       </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22">
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22">
         <v>2.44</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23">
+        <v>193</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23">
         <v>1787</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
       <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
         <v>30</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>78.5</v>
       </c>
-      <c r="I23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23">
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23">
         <v>2.38</v>
       </c>
-      <c r="K23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23">
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23">
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24">
+        <v>194</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24">
         <v>1753</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
       <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
         <v>31</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>23.601700000000001</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2.04</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1.7316</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>9.2799999999999994</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>19.2468</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25">
+        <v>194</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25">
         <v>1754</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
       <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
         <v>31</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>23.390499999999999</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1.92</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>4.0373999999999999</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>9.09</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>86.2042</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26">
+        <v>194</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26">
         <v>1755</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
       <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
         <v>31</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>25.8339</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2.4</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.1842000000000001</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>10.3</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>58.729900000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27">
+        <v>194</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27">
         <v>1756</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>18</v>
       </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
       <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
         <v>31</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>30.267299999999999</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5.51</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>5.2411000000000003</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>9.74</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>29.011399999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28">
+        <v>194</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28">
         <v>1757</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>18</v>
       </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
       <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
         <v>31</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>44.787599999999998</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1.47</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1.349</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>9.32</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>41.819699999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29">
+        <v>194</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29">
         <v>1758</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>18</v>
       </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
       <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
         <v>31</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>54.865299999999998</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.04</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>3.9096000000000002</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>8.7100000000000009</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>49.695900000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30">
+        <v>194</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30">
         <v>1759</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
       <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
         <v>31</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>20.133400000000002</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.69</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2.1564999999999999</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>6.85</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>26.9619</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1678</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>32</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
       <c r="H31" t="s">
         <v>13</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31">
         <v>2.4</v>
       </c>
-      <c r="K31" t="s">
-        <v>13</v>
-      </c>
       <c r="L31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32">
+        <v>196</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32">
         <v>1760</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>33</v>
       </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
       <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
         <v>34</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>58.498446389999998</v>
       </c>
-      <c r="I32" t="s">
-        <v>13</v>
-      </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
@@ -2499,66 +2628,72 @@
       <c r="L32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33">
+        <v>196</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33">
         <v>1760</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>33</v>
       </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
       <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
         <v>35</v>
       </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33">
         <v>6.9126213590000001</v>
       </c>
-      <c r="K33" t="s">
-        <v>13</v>
-      </c>
       <c r="L33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34">
+        <v>196</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34">
         <v>1760</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>33</v>
       </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
       <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
         <v>36</v>
       </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
       <c r="I34" t="s">
         <v>13</v>
       </c>
@@ -2568,36 +2703,39 @@
       <c r="K34" t="s">
         <v>13</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34">
         <v>87.166559179999993</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35">
+        <v>196</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35">
         <v>1761</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>33</v>
       </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
       <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
         <v>37</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>79.892126399999995</v>
       </c>
-      <c r="I35" t="s">
-        <v>13</v>
-      </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
@@ -2607,66 +2745,72 @@
       <c r="L35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36">
+        <v>196</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36">
         <v>1761</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>33</v>
       </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
       <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
         <v>38</v>
       </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
       <c r="I36" t="s">
         <v>13</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36">
         <v>2.0582524270000002</v>
       </c>
-      <c r="K36" t="s">
-        <v>13</v>
-      </c>
       <c r="L36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37">
+        <v>196</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37">
         <v>1761</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>33</v>
       </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
       <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
         <v>39</v>
       </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
       <c r="I37" t="s">
         <v>13</v>
       </c>
@@ -2676,36 +2820,39 @@
       <c r="K37" t="s">
         <v>13</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37">
         <v>47.357448550000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38">
+        <v>196</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38">
         <v>1762</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>33</v>
       </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
       <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
         <v>40</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>87.340094980000003</v>
       </c>
-      <c r="I38" t="s">
-        <v>13</v>
-      </c>
       <c r="J38" t="s">
         <v>13</v>
       </c>
@@ -2715,66 +2862,72 @@
       <c r="L38" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39">
+        <v>196</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39">
         <v>1762</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>33</v>
       </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
       <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
         <v>41</v>
       </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
       <c r="I39" t="s">
         <v>13</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39">
         <v>3.902912621</v>
       </c>
-      <c r="K39" t="s">
-        <v>13</v>
-      </c>
       <c r="L39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40">
+        <v>196</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40">
         <v>1762</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>33</v>
       </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
       <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
         <v>42</v>
       </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
       <c r="I40" t="s">
         <v>13</v>
       </c>
@@ -2784,36 +2937,39 @@
       <c r="K40" t="s">
         <v>13</v>
       </c>
-      <c r="L40">
+      <c r="L40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40">
         <v>58.664477929999997</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41">
+        <v>196</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41">
         <v>1763</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>33</v>
       </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
       <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
         <v>43</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>64.18197807</v>
       </c>
-      <c r="I41" t="s">
-        <v>13</v>
-      </c>
       <c r="J41" t="s">
         <v>13</v>
       </c>
@@ -2823,66 +2979,72 @@
       <c r="L41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42">
+        <v>196</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42">
         <v>1763</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>33</v>
       </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
       <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
         <v>44</v>
       </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
       <c r="I42" t="s">
         <v>13</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42">
         <v>0.95145631100000005</v>
       </c>
-      <c r="K42" t="s">
-        <v>13</v>
-      </c>
       <c r="L42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43">
+        <v>196</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43">
         <v>1763</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>33</v>
       </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
       <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
         <v>45</v>
       </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
       <c r="I43" t="s">
         <v>13</v>
       </c>
@@ -2892,36 +3054,39 @@
       <c r="K43" t="s">
         <v>13</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43">
         <v>23.506126519999999</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44">
+        <v>196</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44">
         <v>1764</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>33</v>
       </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
       <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
         <v>46</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>42.185143930000002</v>
       </c>
-      <c r="I44" t="s">
-        <v>13</v>
-      </c>
       <c r="J44" t="s">
         <v>13</v>
       </c>
@@ -2931,66 +3096,72 @@
       <c r="L44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45">
+        <v>196</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45">
         <v>1764</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>33</v>
       </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
       <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
         <v>47</v>
       </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
       <c r="I45" t="s">
         <v>13</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45">
         <v>2</v>
       </c>
-      <c r="K45" t="s">
-        <v>13</v>
-      </c>
       <c r="L45" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46">
+        <v>196</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46">
         <v>1764</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>33</v>
       </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
       <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
         <v>48</v>
       </c>
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
       <c r="I46" t="s">
         <v>13</v>
       </c>
@@ -3000,36 +3171,39 @@
       <c r="K46" t="s">
         <v>13</v>
       </c>
-      <c r="L46">
+      <c r="L46" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46">
         <v>54.584041740000004</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47">
+        <v>196</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47">
         <v>1765</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>33</v>
       </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
       <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
         <v>49</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>37.237028789999997</v>
       </c>
-      <c r="I47" t="s">
-        <v>13</v>
-      </c>
       <c r="J47" t="s">
         <v>13</v>
       </c>
@@ -3039,66 +3213,72 @@
       <c r="L47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48">
+        <v>196</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48">
         <v>1765</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>33</v>
       </c>
-      <c r="F48" t="s">
-        <v>11</v>
-      </c>
       <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
         <v>50</v>
       </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
       <c r="I48" t="s">
         <v>13</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48">
         <v>1.126213592</v>
       </c>
-      <c r="K48" t="s">
-        <v>13</v>
-      </c>
       <c r="L48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49">
+        <v>196</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49">
         <v>1765</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>33</v>
       </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
       <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
         <v>51</v>
       </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
       <c r="I49" t="s">
         <v>13</v>
       </c>
@@ -3108,324 +3288,351 @@
       <c r="K49" t="s">
         <v>13</v>
       </c>
-      <c r="L49">
+      <c r="L49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49">
         <v>33.749428389999999</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50">
+      <c r="D50" s="1"/>
+      <c r="E50">
         <v>384</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>14</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>15</v>
       </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
       <c r="H50" t="s">
         <v>13</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50">
         <v>0.79</v>
       </c>
-      <c r="J50" t="s">
-        <v>13</v>
-      </c>
       <c r="K50" t="s">
         <v>13</v>
       </c>
       <c r="L50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51">
+      <c r="D51" s="1"/>
+      <c r="E51">
         <v>385</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>14</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>15</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>182</v>
       </c>
-      <c r="H51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51">
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51">
         <v>0.64</v>
       </c>
-      <c r="J51" t="s">
-        <v>13</v>
-      </c>
       <c r="K51" t="s">
         <v>13</v>
       </c>
       <c r="L51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52">
+      <c r="D52" s="1"/>
+      <c r="E52">
         <v>962</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>52</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>15</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>183</v>
       </c>
-      <c r="H52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52">
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52">
         <v>0.81</v>
       </c>
-      <c r="J52" t="s">
-        <v>13</v>
-      </c>
       <c r="K52" t="s">
         <v>13</v>
       </c>
       <c r="L52" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53">
+      <c r="D53" s="1"/>
+      <c r="E53">
         <v>963</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>52</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>15</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>184</v>
       </c>
-      <c r="H53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53">
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53">
         <v>1.21</v>
       </c>
-      <c r="J53" t="s">
-        <v>13</v>
-      </c>
       <c r="K53" t="s">
         <v>13</v>
       </c>
       <c r="L53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54">
+      <c r="D54" s="1"/>
+      <c r="E54">
         <v>1749</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>14</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>15</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>53</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>149.19999999999999</v>
       </c>
-      <c r="I54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54">
+      <c r="J54" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54">
         <v>1.04</v>
       </c>
-      <c r="K54" t="s">
-        <v>13</v>
-      </c>
-      <c r="L54">
+      <c r="L54" t="s">
+        <v>13</v>
+      </c>
+      <c r="M54">
         <v>6.99</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55">
+      <c r="D55" s="1"/>
+      <c r="E55">
         <v>1750</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>14</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>15</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>53</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>64.900000000000006</v>
       </c>
-      <c r="I55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55">
+      <c r="J55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K55" t="s">
-        <v>13</v>
-      </c>
-      <c r="L55">
+      <c r="L55" t="s">
+        <v>13</v>
+      </c>
+      <c r="M55">
         <v>4.7</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56">
+      <c r="D56" s="1"/>
+      <c r="E56">
         <v>1751</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>52</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>15</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>53</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>150.9</v>
       </c>
-      <c r="I56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56">
+      <c r="J56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56">
         <v>0.45</v>
       </c>
-      <c r="K56" t="s">
-        <v>13</v>
-      </c>
-      <c r="L56">
+      <c r="L56" t="s">
+        <v>13</v>
+      </c>
+      <c r="M56">
         <v>4.68</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57">
+      <c r="D57" s="1"/>
+      <c r="E57">
         <v>1752</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>52</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>15</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>53</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>87.6</v>
       </c>
-      <c r="I57" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57">
+      <c r="J57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57">
         <v>0.68</v>
       </c>
-      <c r="K57" t="s">
-        <v>13</v>
-      </c>
-      <c r="L57">
+      <c r="L57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M57">
         <v>3.72</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58">
+      <c r="D58" s="1"/>
+      <c r="E58">
         <v>1732</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>54</v>
       </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
       <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
         <v>55</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>39.848999999999997</v>
       </c>
-      <c r="I58" t="s">
-        <v>13</v>
-      </c>
       <c r="J58" t="s">
         <v>13</v>
       </c>
@@ -3435,66 +3642,72 @@
       <c r="L58" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59">
+      <c r="D59" s="1"/>
+      <c r="E59">
         <v>1732</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>54</v>
       </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
       <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
         <v>56</v>
       </c>
-      <c r="H59" t="s">
-        <v>13</v>
-      </c>
       <c r="I59" t="s">
         <v>13</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59">
         <v>3.7749999999999999</v>
       </c>
-      <c r="K59" t="s">
-        <v>13</v>
-      </c>
       <c r="L59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60">
+      <c r="D60" s="1"/>
+      <c r="E60">
         <v>1732</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>54</v>
       </c>
-      <c r="F60" t="s">
-        <v>11</v>
-      </c>
       <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
         <v>57</v>
       </c>
-      <c r="H60" t="s">
-        <v>13</v>
-      </c>
       <c r="I60" t="s">
         <v>13</v>
       </c>
@@ -3504,36 +3717,39 @@
       <c r="K60" t="s">
         <v>13</v>
       </c>
-      <c r="L60">
+      <c r="L60" t="s">
+        <v>13</v>
+      </c>
+      <c r="M60">
         <v>2.1259999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61">
+      <c r="D61" s="1"/>
+      <c r="E61">
         <v>1733</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>54</v>
       </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
       <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
         <v>58</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>149.19900000000001</v>
       </c>
-      <c r="I61" t="s">
-        <v>13</v>
-      </c>
       <c r="J61" t="s">
         <v>13</v>
       </c>
@@ -3543,66 +3759,72 @@
       <c r="L61" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62">
+      <c r="D62" s="1"/>
+      <c r="E62">
         <v>1733</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>54</v>
       </c>
-      <c r="F62" t="s">
-        <v>11</v>
-      </c>
       <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
         <v>59</v>
       </c>
-      <c r="H62" t="s">
-        <v>13</v>
-      </c>
       <c r="I62" t="s">
         <v>13</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62">
         <v>8.2569999999999997</v>
       </c>
-      <c r="K62" t="s">
-        <v>13</v>
-      </c>
       <c r="L62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63">
+      <c r="D63" s="1"/>
+      <c r="E63">
         <v>1733</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>54</v>
       </c>
-      <c r="F63" t="s">
-        <v>11</v>
-      </c>
       <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
         <v>60</v>
       </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
       <c r="I63" t="s">
         <v>13</v>
       </c>
@@ -3612,36 +3834,39 @@
       <c r="K63" t="s">
         <v>13</v>
       </c>
-      <c r="L63">
+      <c r="L63" t="s">
+        <v>13</v>
+      </c>
+      <c r="M63">
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64">
+      <c r="D64" s="1"/>
+      <c r="E64">
         <v>1734</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>54</v>
       </c>
-      <c r="F64" t="s">
-        <v>11</v>
-      </c>
       <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
         <v>61</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>95.346000000000004</v>
       </c>
-      <c r="I64" t="s">
-        <v>13</v>
-      </c>
       <c r="J64" t="s">
         <v>13</v>
       </c>
@@ -3651,66 +3876,72 @@
       <c r="L64" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65">
+      <c r="D65" s="1"/>
+      <c r="E65">
         <v>1734</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>54</v>
       </c>
-      <c r="F65" t="s">
-        <v>11</v>
-      </c>
       <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
         <v>62</v>
       </c>
-      <c r="H65" t="s">
-        <v>13</v>
-      </c>
       <c r="I65" t="s">
         <v>13</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65">
         <v>27.613</v>
       </c>
-      <c r="K65" t="s">
-        <v>13</v>
-      </c>
       <c r="L65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66">
+      <c r="D66" s="1"/>
+      <c r="E66">
         <v>1734</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>54</v>
       </c>
-      <c r="F66" t="s">
-        <v>11</v>
-      </c>
       <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
         <v>63</v>
       </c>
-      <c r="H66" t="s">
-        <v>13</v>
-      </c>
       <c r="I66" t="s">
         <v>13</v>
       </c>
@@ -3720,33 +3951,36 @@
       <c r="K66" t="s">
         <v>13</v>
       </c>
-      <c r="L66">
+      <c r="L66" t="s">
+        <v>13</v>
+      </c>
+      <c r="M66">
         <v>2.0249999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>1694</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>64</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>15</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>65</v>
       </c>
-      <c r="H67" t="s">
-        <v>13</v>
-      </c>
       <c r="I67" t="s">
         <v>13</v>
       </c>
@@ -3756,33 +3990,36 @@
       <c r="K67" t="s">
         <v>13</v>
       </c>
-      <c r="L67">
+      <c r="L67" t="s">
+        <v>13</v>
+      </c>
+      <c r="M67">
         <v>7.25</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>1695</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>64</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>15</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>65</v>
       </c>
-      <c r="H68" t="s">
-        <v>13</v>
-      </c>
       <c r="I68" t="s">
         <v>13</v>
       </c>
@@ -3792,33 +4029,36 @@
       <c r="K68" t="s">
         <v>13</v>
       </c>
-      <c r="L68">
+      <c r="L68" t="s">
+        <v>13</v>
+      </c>
+      <c r="M68">
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>1696</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>64</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>15</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>65</v>
       </c>
-      <c r="H69" t="s">
-        <v>13</v>
-      </c>
       <c r="I69" t="s">
         <v>13</v>
       </c>
@@ -3828,33 +4068,36 @@
       <c r="K69" t="s">
         <v>13</v>
       </c>
-      <c r="L69">
+      <c r="L69" t="s">
+        <v>13</v>
+      </c>
+      <c r="M69">
         <v>6.73</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>1697</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>64</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>15</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>65</v>
       </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
       <c r="I70" t="s">
         <v>13</v>
       </c>
@@ -3864,33 +4107,36 @@
       <c r="K70" t="s">
         <v>13</v>
       </c>
-      <c r="L70">
+      <c r="L70" t="s">
+        <v>13</v>
+      </c>
+      <c r="M70">
         <v>5.8</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>1698</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>64</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>15</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>65</v>
       </c>
-      <c r="H71" t="s">
-        <v>13</v>
-      </c>
       <c r="I71" t="s">
         <v>13</v>
       </c>
@@ -3900,33 +4146,36 @@
       <c r="K71" t="s">
         <v>13</v>
       </c>
-      <c r="L71">
+      <c r="L71" t="s">
+        <v>13</v>
+      </c>
+      <c r="M71">
         <v>6.09</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>1699</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>66</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>15</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>67</v>
       </c>
-      <c r="H72" t="s">
-        <v>13</v>
-      </c>
       <c r="I72" t="s">
         <v>13</v>
       </c>
@@ -3936,33 +4185,36 @@
       <c r="K72" t="s">
         <v>13</v>
       </c>
-      <c r="L72">
+      <c r="L72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M72">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>1700</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>66</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>15</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>68</v>
       </c>
-      <c r="H73" t="s">
-        <v>13</v>
-      </c>
       <c r="I73" t="s">
         <v>13</v>
       </c>
@@ -3972,33 +4224,36 @@
       <c r="K73" t="s">
         <v>13</v>
       </c>
-      <c r="L73">
+      <c r="L73" t="s">
+        <v>13</v>
+      </c>
+      <c r="M73">
         <v>7.8</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>1701</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>66</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>15</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>69</v>
       </c>
-      <c r="H74" t="s">
-        <v>13</v>
-      </c>
       <c r="I74" t="s">
         <v>13</v>
       </c>
@@ -4008,33 +4263,36 @@
       <c r="K74" t="s">
         <v>13</v>
       </c>
-      <c r="L74">
+      <c r="L74" t="s">
+        <v>13</v>
+      </c>
+      <c r="M74">
         <v>8.33</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>1702</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>66</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>15</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>70</v>
       </c>
-      <c r="H75" t="s">
-        <v>13</v>
-      </c>
       <c r="I75" t="s">
         <v>13</v>
       </c>
@@ -4044,33 +4302,36 @@
       <c r="K75" t="s">
         <v>13</v>
       </c>
-      <c r="L75">
+      <c r="L75" t="s">
+        <v>13</v>
+      </c>
+      <c r="M75">
         <v>7.57</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>1703</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>66</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>15</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>71</v>
       </c>
-      <c r="H76" t="s">
-        <v>13</v>
-      </c>
       <c r="I76" t="s">
         <v>13</v>
       </c>
@@ -4080,33 +4341,36 @@
       <c r="K76" t="s">
         <v>13</v>
       </c>
-      <c r="L76">
+      <c r="L76" t="s">
+        <v>13</v>
+      </c>
+      <c r="M76">
         <v>5.76</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>1704</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>72</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>15</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>73</v>
       </c>
-      <c r="H77" t="s">
-        <v>13</v>
-      </c>
       <c r="I77" t="s">
         <v>13</v>
       </c>
@@ -4116,33 +4380,36 @@
       <c r="K77" t="s">
         <v>13</v>
       </c>
-      <c r="L77">
+      <c r="L77" t="s">
+        <v>13</v>
+      </c>
+      <c r="M77">
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>1705</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>72</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>15</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>73</v>
       </c>
-      <c r="H78" t="s">
-        <v>13</v>
-      </c>
       <c r="I78" t="s">
         <v>13</v>
       </c>
@@ -4152,33 +4419,36 @@
       <c r="K78" t="s">
         <v>13</v>
       </c>
-      <c r="L78">
+      <c r="L78" t="s">
+        <v>13</v>
+      </c>
+      <c r="M78">
         <v>7.83</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>1706</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>72</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>15</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>73</v>
       </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
       <c r="I79" t="s">
         <v>13</v>
       </c>
@@ -4188,33 +4458,36 @@
       <c r="K79" t="s">
         <v>13</v>
       </c>
-      <c r="L79">
+      <c r="L79" t="s">
+        <v>13</v>
+      </c>
+      <c r="M79">
         <v>5.2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>1707</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>72</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>15</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>73</v>
       </c>
-      <c r="H80" t="s">
-        <v>13</v>
-      </c>
       <c r="I80" t="s">
         <v>13</v>
       </c>
@@ -4224,33 +4497,36 @@
       <c r="K80" t="s">
         <v>13</v>
       </c>
-      <c r="L80">
+      <c r="L80" t="s">
+        <v>13</v>
+      </c>
+      <c r="M80">
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>1708</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>72</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>15</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>73</v>
       </c>
-      <c r="H81" t="s">
-        <v>13</v>
-      </c>
       <c r="I81" t="s">
         <v>13</v>
       </c>
@@ -4260,36 +4536,39 @@
       <c r="K81" t="s">
         <v>13</v>
       </c>
-      <c r="L81">
+      <c r="L81" t="s">
+        <v>13</v>
+      </c>
+      <c r="M81">
         <v>5.6</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82">
+        <v>200</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82">
         <v>1721</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>74</v>
       </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
       <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
         <v>75</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>83</v>
       </c>
-      <c r="I82" t="s">
-        <v>13</v>
-      </c>
       <c r="J82" t="s">
         <v>13</v>
       </c>
@@ -4299,66 +4578,72 @@
       <c r="L82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83">
+        <v>200</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83">
         <v>1721</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>74</v>
       </c>
-      <c r="F83" t="s">
-        <v>11</v>
-      </c>
       <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
         <v>76</v>
       </c>
-      <c r="H83" t="s">
-        <v>13</v>
-      </c>
       <c r="I83" t="s">
         <v>13</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83">
         <v>55.1</v>
       </c>
-      <c r="K83" t="s">
-        <v>13</v>
-      </c>
       <c r="L83" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84">
+        <v>200</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84">
         <v>1721</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>74</v>
       </c>
-      <c r="F84" t="s">
-        <v>11</v>
-      </c>
       <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
         <v>77</v>
       </c>
-      <c r="H84" t="s">
-        <v>13</v>
-      </c>
       <c r="I84" t="s">
         <v>13</v>
       </c>
@@ -4368,36 +4653,39 @@
       <c r="K84" t="s">
         <v>13</v>
       </c>
-      <c r="L84">
+      <c r="L84" t="s">
+        <v>13</v>
+      </c>
+      <c r="M84">
         <v>0.85</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85">
+        <v>200</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85">
         <v>1722</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>78</v>
       </c>
-      <c r="F85" t="s">
-        <v>11</v>
-      </c>
       <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
         <v>79</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>60</v>
       </c>
-      <c r="I85" t="s">
-        <v>13</v>
-      </c>
       <c r="J85" t="s">
         <v>13</v>
       </c>
@@ -4407,66 +4695,72 @@
       <c r="L85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86">
+        <v>200</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86">
         <v>1722</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>78</v>
       </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
       <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
         <v>80</v>
       </c>
-      <c r="H86" t="s">
-        <v>13</v>
-      </c>
       <c r="I86" t="s">
         <v>13</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86">
         <v>4.32</v>
       </c>
-      <c r="K86" t="s">
-        <v>13</v>
-      </c>
       <c r="L86" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="D87">
+        <v>200</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87">
         <v>1722</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>78</v>
       </c>
-      <c r="F87" t="s">
-        <v>11</v>
-      </c>
       <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
         <v>81</v>
       </c>
-      <c r="H87" t="s">
-        <v>13</v>
-      </c>
       <c r="I87" t="s">
         <v>13</v>
       </c>
@@ -4476,36 +4770,39 @@
       <c r="K87" t="s">
         <v>13</v>
       </c>
-      <c r="L87">
+      <c r="L87" t="s">
+        <v>13</v>
+      </c>
+      <c r="M87">
         <v>0.998</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88">
+        <v>200</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88">
         <v>1723</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>82</v>
       </c>
-      <c r="F88" t="s">
-        <v>11</v>
-      </c>
       <c r="G88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" t="s">
         <v>83</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>93</v>
       </c>
-      <c r="I88" t="s">
-        <v>13</v>
-      </c>
       <c r="J88" t="s">
         <v>13</v>
       </c>
@@ -4515,66 +4812,72 @@
       <c r="L88" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89">
+        <v>200</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89">
         <v>1723</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>82</v>
       </c>
-      <c r="F89" t="s">
-        <v>11</v>
-      </c>
       <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
         <v>84</v>
       </c>
-      <c r="H89" t="s">
-        <v>13</v>
-      </c>
       <c r="I89" t="s">
         <v>13</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89">
         <v>2.52</v>
       </c>
-      <c r="K89" t="s">
-        <v>13</v>
-      </c>
       <c r="L89" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90">
+        <v>200</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90">
         <v>1723</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>82</v>
       </c>
-      <c r="F90" t="s">
-        <v>11</v>
-      </c>
       <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" t="s">
         <v>85</v>
       </c>
-      <c r="H90" t="s">
-        <v>13</v>
-      </c>
       <c r="I90" t="s">
         <v>13</v>
       </c>
@@ -4584,36 +4887,39 @@
       <c r="K90" t="s">
         <v>13</v>
       </c>
-      <c r="L90">
+      <c r="L90" t="s">
+        <v>13</v>
+      </c>
+      <c r="M90">
         <v>3.54</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91">
+        <v>200</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91">
         <v>1724</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>86</v>
       </c>
-      <c r="F91" t="s">
-        <v>11</v>
-      </c>
       <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
         <v>87</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>102</v>
       </c>
-      <c r="I91" t="s">
-        <v>13</v>
-      </c>
       <c r="J91" t="s">
         <v>13</v>
       </c>
@@ -4623,66 +4929,72 @@
       <c r="L91" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92">
+        <v>200</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92">
         <v>1724</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>86</v>
       </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
       <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
         <v>88</v>
       </c>
-      <c r="H92" t="s">
-        <v>13</v>
-      </c>
       <c r="I92" t="s">
         <v>13</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92">
         <v>4.62</v>
       </c>
-      <c r="K92" t="s">
-        <v>13</v>
-      </c>
       <c r="L92" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93">
+        <v>200</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93">
         <v>1724</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>86</v>
       </c>
-      <c r="F93" t="s">
-        <v>11</v>
-      </c>
       <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="s">
         <v>89</v>
       </c>
-      <c r="H93" t="s">
-        <v>13</v>
-      </c>
       <c r="I93" t="s">
         <v>13</v>
       </c>
@@ -4692,36 +5004,39 @@
       <c r="K93" t="s">
         <v>13</v>
       </c>
-      <c r="L93">
+      <c r="L93" t="s">
+        <v>13</v>
+      </c>
+      <c r="M93">
         <v>2.25</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94">
+        <v>200</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94">
         <v>1725</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>90</v>
       </c>
-      <c r="F94" t="s">
-        <v>11</v>
-      </c>
       <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
         <v>91</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>27</v>
       </c>
-      <c r="I94" t="s">
-        <v>13</v>
-      </c>
       <c r="J94" t="s">
         <v>13</v>
       </c>
@@ -4731,66 +5046,72 @@
       <c r="L94" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95">
+        <v>200</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95">
         <v>1725</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>90</v>
       </c>
-      <c r="F95" t="s">
-        <v>11</v>
-      </c>
       <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
         <v>92</v>
       </c>
-      <c r="H95" t="s">
-        <v>13</v>
-      </c>
       <c r="I95" t="s">
         <v>13</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="s">
+        <v>13</v>
+      </c>
+      <c r="K95">
         <v>8.11</v>
       </c>
-      <c r="K95" t="s">
-        <v>13</v>
-      </c>
       <c r="L95" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96">
+        <v>200</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96">
         <v>1725</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>90</v>
       </c>
-      <c r="F96" t="s">
-        <v>11</v>
-      </c>
       <c r="G96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" t="s">
         <v>93</v>
       </c>
-      <c r="H96" t="s">
-        <v>13</v>
-      </c>
       <c r="I96" t="s">
         <v>13</v>
       </c>
@@ -4800,36 +5121,39 @@
       <c r="K96" t="s">
         <v>13</v>
       </c>
-      <c r="L96">
+      <c r="L96" t="s">
+        <v>13</v>
+      </c>
+      <c r="M96">
         <v>1.51</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97">
+        <v>200</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97">
         <v>1726</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>78</v>
       </c>
-      <c r="F97" t="s">
-        <v>11</v>
-      </c>
       <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
         <v>94</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>68</v>
       </c>
-      <c r="I97" t="s">
-        <v>13</v>
-      </c>
       <c r="J97" t="s">
         <v>13</v>
       </c>
@@ -4839,66 +5163,72 @@
       <c r="L97" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98">
+        <v>200</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98">
         <v>1726</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>78</v>
       </c>
-      <c r="F98" t="s">
-        <v>11</v>
-      </c>
       <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
         <v>95</v>
       </c>
-      <c r="H98" t="s">
-        <v>13</v>
-      </c>
       <c r="I98" t="s">
         <v>13</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98">
         <v>7.08</v>
       </c>
-      <c r="K98" t="s">
-        <v>13</v>
-      </c>
       <c r="L98" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99">
+        <v>200</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99">
         <v>1726</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>78</v>
       </c>
-      <c r="F99" t="s">
-        <v>11</v>
-      </c>
       <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
         <v>96</v>
       </c>
-      <c r="H99" t="s">
-        <v>13</v>
-      </c>
       <c r="I99" t="s">
         <v>13</v>
       </c>
@@ -4908,36 +5238,39 @@
       <c r="K99" t="s">
         <v>13</v>
       </c>
-      <c r="L99">
+      <c r="L99" t="s">
+        <v>13</v>
+      </c>
+      <c r="M99">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100">
+        <v>200</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100">
         <v>1727</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>78</v>
       </c>
-      <c r="F100" t="s">
-        <v>11</v>
-      </c>
       <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
         <v>97</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>57</v>
       </c>
-      <c r="I100" t="s">
-        <v>13</v>
-      </c>
       <c r="J100" t="s">
         <v>13</v>
       </c>
@@ -4947,66 +5280,72 @@
       <c r="L100" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101">
+        <v>200</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101">
         <v>1727</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>78</v>
       </c>
-      <c r="F101" t="s">
-        <v>11</v>
-      </c>
       <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
         <v>98</v>
       </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
       <c r="I101" t="s">
         <v>13</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101">
         <v>2.85</v>
       </c>
-      <c r="K101" t="s">
-        <v>13</v>
-      </c>
       <c r="L101" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102">
+        <v>200</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102">
         <v>1727</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>78</v>
       </c>
-      <c r="F102" t="s">
-        <v>11</v>
-      </c>
       <c r="G102" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" t="s">
         <v>99</v>
       </c>
-      <c r="H102" t="s">
-        <v>13</v>
-      </c>
       <c r="I102" t="s">
         <v>13</v>
       </c>
@@ -5016,36 +5355,39 @@
       <c r="K102" t="s">
         <v>13</v>
       </c>
-      <c r="L102">
+      <c r="L102" t="s">
+        <v>13</v>
+      </c>
+      <c r="M102">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103">
+        <v>200</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103">
         <v>1728</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>78</v>
       </c>
-      <c r="F103" t="s">
-        <v>11</v>
-      </c>
       <c r="G103" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" t="s">
         <v>100</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>53</v>
       </c>
-      <c r="I103" t="s">
-        <v>13</v>
-      </c>
       <c r="J103" t="s">
         <v>13</v>
       </c>
@@ -5055,66 +5397,72 @@
       <c r="L103" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104">
+        <v>200</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104">
         <v>1728</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>78</v>
       </c>
-      <c r="F104" t="s">
-        <v>11</v>
-      </c>
       <c r="G104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" t="s">
         <v>101</v>
       </c>
-      <c r="H104" t="s">
-        <v>13</v>
-      </c>
       <c r="I104" t="s">
         <v>13</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104">
         <v>1.97</v>
       </c>
-      <c r="K104" t="s">
-        <v>13</v>
-      </c>
       <c r="L104" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="D105">
+        <v>200</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105">
         <v>1728</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>78</v>
       </c>
-      <c r="F105" t="s">
-        <v>11</v>
-      </c>
       <c r="G105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" t="s">
         <v>102</v>
       </c>
-      <c r="H105" t="s">
-        <v>13</v>
-      </c>
       <c r="I105" t="s">
         <v>13</v>
       </c>
@@ -5124,36 +5472,39 @@
       <c r="K105" t="s">
         <v>13</v>
       </c>
-      <c r="L105">
+      <c r="L105" t="s">
+        <v>13</v>
+      </c>
+      <c r="M105">
         <v>1.02</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106">
+        <v>200</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106">
         <v>1729</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>74</v>
       </c>
-      <c r="F106" t="s">
-        <v>11</v>
-      </c>
       <c r="G106" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" t="s">
         <v>103</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>105</v>
       </c>
-      <c r="I106" t="s">
-        <v>13</v>
-      </c>
       <c r="J106" t="s">
         <v>13</v>
       </c>
@@ -5163,66 +5514,72 @@
       <c r="L106" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107">
+        <v>200</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107">
         <v>1729</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>74</v>
       </c>
-      <c r="F107" t="s">
-        <v>11</v>
-      </c>
       <c r="G107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" t="s">
         <v>104</v>
       </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
       <c r="I107" t="s">
         <v>13</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107">
         <v>8.0500000000000007</v>
       </c>
-      <c r="K107" t="s">
-        <v>13</v>
-      </c>
       <c r="L107" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108">
+        <v>200</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108">
         <v>1729</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>74</v>
       </c>
-      <c r="F108" t="s">
-        <v>11</v>
-      </c>
       <c r="G108" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" t="s">
         <v>105</v>
       </c>
-      <c r="H108" t="s">
-        <v>13</v>
-      </c>
       <c r="I108" t="s">
         <v>13</v>
       </c>
@@ -5232,36 +5589,39 @@
       <c r="K108" t="s">
         <v>13</v>
       </c>
-      <c r="L108">
+      <c r="L108" t="s">
+        <v>13</v>
+      </c>
+      <c r="M108">
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="D109">
+        <v>200</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109">
         <v>1730</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>74</v>
       </c>
-      <c r="F109" t="s">
-        <v>11</v>
-      </c>
       <c r="G109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" t="s">
         <v>106</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>74</v>
       </c>
-      <c r="I109" t="s">
-        <v>13</v>
-      </c>
       <c r="J109" t="s">
         <v>13</v>
       </c>
@@ -5271,66 +5631,72 @@
       <c r="L109" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110">
+        <v>200</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110">
         <v>1730</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>74</v>
       </c>
-      <c r="F110" t="s">
-        <v>11</v>
-      </c>
       <c r="G110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" t="s">
         <v>107</v>
       </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
       <c r="I110" t="s">
         <v>13</v>
       </c>
-      <c r="J110">
+      <c r="J110" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110">
         <v>4.3899999999999997</v>
       </c>
-      <c r="K110" t="s">
-        <v>13</v>
-      </c>
       <c r="L110" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C111" s="1"/>
-      <c r="D111">
+        <v>200</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111">
         <v>1730</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>74</v>
       </c>
-      <c r="F111" t="s">
-        <v>11</v>
-      </c>
       <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
         <v>108</v>
       </c>
-      <c r="H111" t="s">
-        <v>13</v>
-      </c>
       <c r="I111" t="s">
         <v>13</v>
       </c>
@@ -5340,36 +5706,39 @@
       <c r="K111" t="s">
         <v>13</v>
       </c>
-      <c r="L111">
+      <c r="L111" t="s">
+        <v>13</v>
+      </c>
+      <c r="M111">
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112">
+        <v>200</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112">
         <v>1731</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>74</v>
       </c>
-      <c r="F112" t="s">
-        <v>11</v>
-      </c>
       <c r="G112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" t="s">
         <v>109</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>63</v>
       </c>
-      <c r="I112" t="s">
-        <v>13</v>
-      </c>
       <c r="J112" t="s">
         <v>13</v>
       </c>
@@ -5379,66 +5748,72 @@
       <c r="L112" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113">
+        <v>200</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113">
         <v>1731</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>74</v>
       </c>
-      <c r="F113" t="s">
-        <v>11</v>
-      </c>
       <c r="G113" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" t="s">
         <v>110</v>
       </c>
-      <c r="H113" t="s">
-        <v>13</v>
-      </c>
       <c r="I113" t="s">
         <v>13</v>
       </c>
-      <c r="J113">
+      <c r="J113" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113">
         <v>3.44</v>
       </c>
-      <c r="K113" t="s">
-        <v>13</v>
-      </c>
       <c r="L113" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114">
+        <v>200</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114">
         <v>1731</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>74</v>
       </c>
-      <c r="F114" t="s">
-        <v>11</v>
-      </c>
       <c r="G114" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" t="s">
         <v>111</v>
       </c>
-      <c r="H114" t="s">
-        <v>13</v>
-      </c>
       <c r="I114" t="s">
         <v>13</v>
       </c>
@@ -5448,36 +5823,39 @@
       <c r="K114" t="s">
         <v>13</v>
       </c>
-      <c r="L114">
+      <c r="L114" t="s">
+        <v>13</v>
+      </c>
+      <c r="M114">
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115">
+        <v>200</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115">
         <v>1712</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>78</v>
       </c>
-      <c r="F115" t="s">
-        <v>11</v>
-      </c>
       <c r="G115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" t="s">
         <v>112</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>60</v>
       </c>
-      <c r="I115" t="s">
-        <v>13</v>
-      </c>
       <c r="J115" t="s">
         <v>13</v>
       </c>
@@ -5487,66 +5865,72 @@
       <c r="L115" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116">
+        <v>200</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116">
         <v>1712</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>78</v>
       </c>
-      <c r="F116" t="s">
-        <v>11</v>
-      </c>
       <c r="G116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" t="s">
         <v>113</v>
       </c>
-      <c r="H116" t="s">
-        <v>13</v>
-      </c>
       <c r="I116" t="s">
         <v>13</v>
       </c>
-      <c r="J116">
+      <c r="J116" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116">
         <v>2.88</v>
       </c>
-      <c r="K116" t="s">
-        <v>13</v>
-      </c>
       <c r="L116" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="D117">
+        <v>200</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117">
         <v>1712</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>78</v>
       </c>
-      <c r="F117" t="s">
-        <v>11</v>
-      </c>
       <c r="G117" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" t="s">
         <v>114</v>
       </c>
-      <c r="H117" t="s">
-        <v>13</v>
-      </c>
       <c r="I117" t="s">
         <v>13</v>
       </c>
@@ -5556,36 +5940,39 @@
       <c r="K117" t="s">
         <v>13</v>
       </c>
-      <c r="L117">
+      <c r="L117" t="s">
+        <v>13</v>
+      </c>
+      <c r="M117">
         <v>1.37</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118">
+        <v>200</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118">
         <v>1713</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>78</v>
       </c>
-      <c r="F118" t="s">
-        <v>11</v>
-      </c>
       <c r="G118" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" t="s">
         <v>115</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>130</v>
       </c>
-      <c r="I118" t="s">
-        <v>13</v>
-      </c>
       <c r="J118" t="s">
         <v>13</v>
       </c>
@@ -5595,66 +5982,72 @@
       <c r="L118" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="D119">
+        <v>200</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119">
         <v>1713</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>78</v>
       </c>
-      <c r="F119" t="s">
-        <v>11</v>
-      </c>
       <c r="G119" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" t="s">
         <v>116</v>
       </c>
-      <c r="H119" t="s">
-        <v>13</v>
-      </c>
       <c r="I119" t="s">
         <v>13</v>
       </c>
-      <c r="J119">
+      <c r="J119" t="s">
+        <v>13</v>
+      </c>
+      <c r="K119">
         <v>5.18</v>
       </c>
-      <c r="K119" t="s">
-        <v>13</v>
-      </c>
       <c r="L119" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C120" s="1"/>
-      <c r="D120">
+        <v>200</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120">
         <v>1713</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>78</v>
       </c>
-      <c r="F120" t="s">
-        <v>11</v>
-      </c>
       <c r="G120" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" t="s">
         <v>117</v>
       </c>
-      <c r="H120" t="s">
-        <v>13</v>
-      </c>
       <c r="I120" t="s">
         <v>13</v>
       </c>
@@ -5664,36 +6057,39 @@
       <c r="K120" t="s">
         <v>13</v>
       </c>
-      <c r="L120">
+      <c r="L120" t="s">
+        <v>13</v>
+      </c>
+      <c r="M120">
         <v>1.55</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121">
+        <v>200</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121">
         <v>1714</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>78</v>
       </c>
-      <c r="F121" t="s">
-        <v>11</v>
-      </c>
       <c r="G121" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" t="s">
         <v>118</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>150</v>
       </c>
-      <c r="I121" t="s">
-        <v>13</v>
-      </c>
       <c r="J121" t="s">
         <v>13</v>
       </c>
@@ -5703,66 +6099,72 @@
       <c r="L121" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122">
+        <v>200</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122">
         <v>1714</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>78</v>
       </c>
-      <c r="F122" t="s">
-        <v>11</v>
-      </c>
       <c r="G122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
         <v>119</v>
       </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
       <c r="I122" t="s">
         <v>13</v>
       </c>
-      <c r="J122">
+      <c r="J122" t="s">
+        <v>13</v>
+      </c>
+      <c r="K122">
         <v>8.27</v>
       </c>
-      <c r="K122" t="s">
-        <v>13</v>
-      </c>
       <c r="L122" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="D123">
+        <v>200</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123">
         <v>1714</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>78</v>
       </c>
-      <c r="F123" t="s">
-        <v>11</v>
-      </c>
       <c r="G123" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
         <v>120</v>
       </c>
-      <c r="H123" t="s">
-        <v>13</v>
-      </c>
       <c r="I123" t="s">
         <v>13</v>
       </c>
@@ -5772,36 +6174,39 @@
       <c r="K123" t="s">
         <v>13</v>
       </c>
-      <c r="L123">
+      <c r="L123" t="s">
+        <v>13</v>
+      </c>
+      <c r="M123">
         <v>1.28</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124">
+        <v>200</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124">
         <v>1715</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>78</v>
       </c>
-      <c r="F124" t="s">
-        <v>11</v>
-      </c>
       <c r="G124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" t="s">
         <v>121</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>120</v>
       </c>
-      <c r="I124" t="s">
-        <v>13</v>
-      </c>
       <c r="J124" t="s">
         <v>13</v>
       </c>
@@ -5811,66 +6216,72 @@
       <c r="L124" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125">
+        <v>200</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125">
         <v>1715</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>78</v>
       </c>
-      <c r="F125" t="s">
-        <v>11</v>
-      </c>
       <c r="G125" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" t="s">
         <v>122</v>
       </c>
-      <c r="H125" t="s">
-        <v>13</v>
-      </c>
       <c r="I125" t="s">
         <v>13</v>
       </c>
-      <c r="J125">
+      <c r="J125" t="s">
+        <v>13</v>
+      </c>
+      <c r="K125">
         <v>7.25</v>
       </c>
-      <c r="K125" t="s">
-        <v>13</v>
-      </c>
       <c r="L125" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="D126">
+        <v>200</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126">
         <v>1715</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>78</v>
       </c>
-      <c r="F126" t="s">
-        <v>11</v>
-      </c>
       <c r="G126" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" t="s">
         <v>123</v>
       </c>
-      <c r="H126" t="s">
-        <v>13</v>
-      </c>
       <c r="I126" t="s">
         <v>13</v>
       </c>
@@ -5880,35 +6291,38 @@
       <c r="K126" t="s">
         <v>13</v>
       </c>
-      <c r="L126">
+      <c r="L126" t="s">
+        <v>13</v>
+      </c>
+      <c r="M126">
         <v>1.86</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="D127">
+        <v>200</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127">
         <v>1716</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>124</v>
       </c>
-      <c r="F127" t="s">
-        <v>11</v>
-      </c>
       <c r="G127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" t="s">
         <v>125</v>
       </c>
-      <c r="H127">
-        <v>180</v>
-      </c>
-      <c r="I127" t="s">
-        <v>13</v>
+      <c r="I127">
+        <v>180</v>
       </c>
       <c r="J127" t="s">
         <v>13</v>
@@ -5919,66 +6333,72 @@
       <c r="L127" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128">
+        <v>200</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128">
         <v>1716</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>124</v>
       </c>
-      <c r="F128" t="s">
-        <v>11</v>
-      </c>
       <c r="G128" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" t="s">
         <v>126</v>
       </c>
-      <c r="H128" t="s">
-        <v>13</v>
-      </c>
       <c r="I128" t="s">
         <v>13</v>
       </c>
-      <c r="J128">
+      <c r="J128" t="s">
+        <v>13</v>
+      </c>
+      <c r="K128">
         <v>10.1</v>
       </c>
-      <c r="K128" t="s">
-        <v>13</v>
-      </c>
       <c r="L128" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129">
+        <v>200</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129">
         <v>1716</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>124</v>
       </c>
-      <c r="F129" t="s">
-        <v>11</v>
-      </c>
       <c r="G129" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" t="s">
         <v>127</v>
       </c>
-      <c r="H129" t="s">
-        <v>13</v>
-      </c>
       <c r="I129" t="s">
         <v>13</v>
       </c>
@@ -5988,36 +6408,39 @@
       <c r="K129" t="s">
         <v>13</v>
       </c>
-      <c r="L129">
+      <c r="L129" t="s">
+        <v>13</v>
+      </c>
+      <c r="M129">
         <v>2.42</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C130" s="1"/>
-      <c r="D130">
+        <v>200</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130">
         <v>1717</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>124</v>
       </c>
-      <c r="F130" t="s">
-        <v>11</v>
-      </c>
       <c r="G130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" t="s">
         <v>128</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>140</v>
       </c>
-      <c r="I130" t="s">
-        <v>13</v>
-      </c>
       <c r="J130" t="s">
         <v>13</v>
       </c>
@@ -6027,66 +6450,72 @@
       <c r="L130" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C131" s="1"/>
-      <c r="D131">
+        <v>200</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131">
         <v>1717</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>124</v>
       </c>
-      <c r="F131" t="s">
-        <v>11</v>
-      </c>
       <c r="G131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" t="s">
         <v>129</v>
       </c>
-      <c r="H131" t="s">
-        <v>13</v>
-      </c>
       <c r="I131" t="s">
         <v>13</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="s">
+        <v>13</v>
+      </c>
+      <c r="K131">
         <v>8.6199999999999992</v>
       </c>
-      <c r="K131" t="s">
-        <v>13</v>
-      </c>
       <c r="L131" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="D132">
+        <v>200</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132">
         <v>1717</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>124</v>
       </c>
-      <c r="F132" t="s">
-        <v>11</v>
-      </c>
       <c r="G132" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" t="s">
         <v>130</v>
       </c>
-      <c r="H132" t="s">
-        <v>13</v>
-      </c>
       <c r="I132" t="s">
         <v>13</v>
       </c>
@@ -6096,36 +6525,39 @@
       <c r="K132" t="s">
         <v>13</v>
       </c>
-      <c r="L132">
+      <c r="L132" t="s">
+        <v>13</v>
+      </c>
+      <c r="M132">
         <v>1.84</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C133" s="1"/>
-      <c r="D133">
+        <v>200</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133">
         <v>1718</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>124</v>
       </c>
-      <c r="F133" t="s">
-        <v>11</v>
-      </c>
       <c r="G133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" t="s">
         <v>131</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>150</v>
       </c>
-      <c r="I133" t="s">
-        <v>13</v>
-      </c>
       <c r="J133" t="s">
         <v>13</v>
       </c>
@@ -6135,66 +6567,72 @@
       <c r="L133" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="D134">
+        <v>200</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134">
         <v>1718</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>124</v>
       </c>
-      <c r="F134" t="s">
-        <v>11</v>
-      </c>
       <c r="G134" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" t="s">
         <v>132</v>
       </c>
-      <c r="H134" t="s">
-        <v>13</v>
-      </c>
       <c r="I134" t="s">
         <v>13</v>
       </c>
-      <c r="J134">
+      <c r="J134" t="s">
+        <v>13</v>
+      </c>
+      <c r="K134">
         <v>13.1</v>
       </c>
-      <c r="K134" t="s">
-        <v>13</v>
-      </c>
       <c r="L134" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C135" s="1"/>
-      <c r="D135">
+        <v>200</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135">
         <v>1718</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>124</v>
       </c>
-      <c r="F135" t="s">
-        <v>11</v>
-      </c>
       <c r="G135" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" t="s">
         <v>133</v>
       </c>
-      <c r="H135" t="s">
-        <v>13</v>
-      </c>
       <c r="I135" t="s">
         <v>13</v>
       </c>
@@ -6204,36 +6642,39 @@
       <c r="K135" t="s">
         <v>13</v>
       </c>
-      <c r="L135">
+      <c r="L135" t="s">
+        <v>13</v>
+      </c>
+      <c r="M135">
         <v>1.52</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="D136">
+        <v>200</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136">
         <v>1719</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>124</v>
       </c>
-      <c r="F136" t="s">
-        <v>11</v>
-      </c>
       <c r="G136" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" t="s">
         <v>134</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>150</v>
       </c>
-      <c r="I136" t="s">
-        <v>13</v>
-      </c>
       <c r="J136" t="s">
         <v>13</v>
       </c>
@@ -6243,66 +6684,72 @@
       <c r="L136" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="D137">
+        <v>200</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137">
         <v>1719</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>124</v>
       </c>
-      <c r="F137" t="s">
-        <v>11</v>
-      </c>
       <c r="G137" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" t="s">
         <v>135</v>
       </c>
-      <c r="H137" t="s">
-        <v>13</v>
-      </c>
       <c r="I137" t="s">
         <v>13</v>
       </c>
-      <c r="J137">
+      <c r="J137" t="s">
+        <v>13</v>
+      </c>
+      <c r="K137">
         <v>8.56</v>
       </c>
-      <c r="K137" t="s">
-        <v>13</v>
-      </c>
       <c r="L137" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="D138">
+        <v>200</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138">
         <v>1719</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>124</v>
       </c>
-      <c r="F138" t="s">
-        <v>11</v>
-      </c>
       <c r="G138" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" t="s">
         <v>136</v>
       </c>
-      <c r="H138" t="s">
-        <v>13</v>
-      </c>
       <c r="I138" t="s">
         <v>13</v>
       </c>
@@ -6312,36 +6759,39 @@
       <c r="K138" t="s">
         <v>13</v>
       </c>
-      <c r="L138">
+      <c r="L138" t="s">
+        <v>13</v>
+      </c>
+      <c r="M138">
         <v>2.1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="D139">
+        <v>200</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139">
         <v>1720</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>124</v>
       </c>
-      <c r="F139" t="s">
-        <v>11</v>
-      </c>
       <c r="G139" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" t="s">
         <v>137</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>100</v>
       </c>
-      <c r="I139" t="s">
-        <v>13</v>
-      </c>
       <c r="J139" t="s">
         <v>13</v>
       </c>
@@ -6351,66 +6801,72 @@
       <c r="L139" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C140" s="1"/>
-      <c r="D140">
+        <v>200</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140">
         <v>1720</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>124</v>
       </c>
-      <c r="F140" t="s">
-        <v>11</v>
-      </c>
       <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" t="s">
         <v>138</v>
       </c>
-      <c r="H140" t="s">
-        <v>13</v>
-      </c>
       <c r="I140" t="s">
         <v>13</v>
       </c>
-      <c r="J140">
+      <c r="J140" t="s">
+        <v>13</v>
+      </c>
+      <c r="K140">
         <v>4.54</v>
       </c>
-      <c r="K140" t="s">
-        <v>13</v>
-      </c>
       <c r="L140" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C141" s="1"/>
-      <c r="D141">
+        <v>200</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141">
         <v>1720</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>124</v>
       </c>
-      <c r="F141" t="s">
-        <v>11</v>
-      </c>
       <c r="G141" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" t="s">
         <v>139</v>
       </c>
-      <c r="H141" t="s">
-        <v>13</v>
-      </c>
       <c r="I141" t="s">
         <v>13</v>
       </c>
@@ -6420,801 +6876,870 @@
       <c r="K141" t="s">
         <v>13</v>
       </c>
-      <c r="L141">
+      <c r="L141" t="s">
+        <v>13</v>
+      </c>
+      <c r="M141">
         <v>1.43</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>1862</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>140</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>141</v>
       </c>
-      <c r="G142" t="s">
-        <v>13</v>
-      </c>
       <c r="H142" t="s">
         <v>13</v>
       </c>
       <c r="I142" t="s">
         <v>13</v>
       </c>
-      <c r="J142">
+      <c r="J142" t="s">
+        <v>13</v>
+      </c>
+      <c r="K142">
         <v>4</v>
       </c>
-      <c r="K142" t="s">
-        <v>13</v>
-      </c>
-      <c r="L142">
+      <c r="L142" t="s">
+        <v>13</v>
+      </c>
+      <c r="M142">
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143">
+      <c r="D143" s="1"/>
+      <c r="E143">
         <v>2006</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>142</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>141</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>143</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>129.5</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>0.73</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>2.1126999999999998</v>
       </c>
-      <c r="K143">
+      <c r="L143">
         <v>18.16</v>
       </c>
-      <c r="L143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144">
+      <c r="D144" s="1"/>
+      <c r="E144">
         <v>2007</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>144</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>141</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>143</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>78.3</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>1.1207</v>
       </c>
-      <c r="K144">
+      <c r="L144">
         <v>20.46</v>
       </c>
-      <c r="L144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C145" s="1"/>
-      <c r="D145">
+      <c r="D145" s="1"/>
+      <c r="E145">
         <v>2008</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>145</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>141</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>143</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>228.1</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>1.26</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>2.2887</v>
       </c>
-      <c r="K145">
+      <c r="L145">
         <v>17.97</v>
       </c>
-      <c r="L145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C146" s="1"/>
-      <c r="D146">
+      <c r="D146" s="1"/>
+      <c r="E146">
         <v>2009</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>146</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>141</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>143</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>22.5</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>0.25</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>5.4431000000000003</v>
       </c>
-      <c r="K146">
+      <c r="L146">
         <v>15.06</v>
       </c>
-      <c r="L146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="D147">
+      <c r="D147" s="1"/>
+      <c r="E147">
         <v>2010</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>147</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>141</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>148</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>30.5</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>2.52</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>6.89</v>
       </c>
-      <c r="K147">
+      <c r="L147">
         <v>15.35</v>
       </c>
-      <c r="L147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C148" s="1"/>
-      <c r="D148">
+      <c r="D148" s="1"/>
+      <c r="E148">
         <v>2011</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>149</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>141</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>150</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>31.8</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>1.89</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>6.1886000000000001</v>
       </c>
-      <c r="K148">
+      <c r="L148">
         <v>18.55</v>
       </c>
-      <c r="L148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C149" s="1"/>
-      <c r="D149">
+      <c r="D149" s="1"/>
+      <c r="E149">
         <v>2012</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>151</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>141</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>143</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>412.3</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>2.44</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>15.4185</v>
       </c>
-      <c r="K149">
+      <c r="L149">
         <v>19.3</v>
       </c>
-      <c r="L149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C150" s="1"/>
-      <c r="D150">
+      <c r="D150" s="1"/>
+      <c r="E150">
         <v>2013</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>152</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>141</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>143</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>458.5</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>2.6</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>1.7529999999999999</v>
       </c>
-      <c r="K150">
+      <c r="L150">
         <v>20.18</v>
       </c>
-      <c r="L150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C151" s="1"/>
-      <c r="D151">
+      <c r="D151" s="1"/>
+      <c r="E151">
         <v>2014</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>153</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>141</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>154</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>615</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>1.23</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>10.961</v>
       </c>
-      <c r="K151">
+      <c r="L151">
         <v>18.14</v>
       </c>
-      <c r="L151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C152" s="1"/>
-      <c r="D152">
+      <c r="D152" s="1"/>
+      <c r="E152">
         <v>2015</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>155</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>15</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>150</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>91.7</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>0.67</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>3.3687</v>
       </c>
-      <c r="K152">
+      <c r="L152">
         <v>18.73</v>
       </c>
-      <c r="L152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C153" s="1"/>
-      <c r="D153">
+      <c r="D153" s="1"/>
+      <c r="E153">
         <v>2016</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>156</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>15</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>150</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>375.9</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>0.64</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <v>15.63</v>
       </c>
-      <c r="K153">
+      <c r="L153">
         <v>10.78</v>
       </c>
-      <c r="L153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C154" s="1"/>
-      <c r="D154">
+      <c r="D154" s="1"/>
+      <c r="E154">
         <v>2017</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>157</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>15</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>150</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>44.2</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>0.91</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <v>14.128500000000001</v>
       </c>
-      <c r="K154">
+      <c r="L154">
         <v>18.41</v>
       </c>
-      <c r="L154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C155" s="1"/>
-      <c r="D155">
+      <c r="D155" s="1"/>
+      <c r="E155">
         <v>2018</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>158</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>15</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>150</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>55.1</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>0.63</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <v>0.93200000000000005</v>
       </c>
-      <c r="K155">
+      <c r="L155">
         <v>19.95</v>
       </c>
-      <c r="L155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C156" s="1"/>
-      <c r="D156">
+      <c r="D156" s="1"/>
+      <c r="E156">
         <v>2019</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>159</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>15</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>150</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>71.599999999999994</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>1.07</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <v>5.2017499999999997</v>
       </c>
-      <c r="K156">
+      <c r="L156">
         <v>20.309999999999999</v>
       </c>
-      <c r="L156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C157" s="1"/>
-      <c r="D157">
+      <c r="D157" s="1"/>
+      <c r="E157">
         <v>2020</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>160</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>15</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>143</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>82.1</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>0.95</v>
       </c>
-      <c r="J157">
+      <c r="K157">
         <v>8.2588000000000008</v>
       </c>
-      <c r="K157">
+      <c r="L157">
         <v>19.73</v>
       </c>
-      <c r="L157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="1"/>
-      <c r="D158">
+      <c r="D158" s="1"/>
+      <c r="E158">
         <v>2021</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>161</v>
       </c>
-      <c r="F158" t="s">
-        <v>11</v>
-      </c>
       <c r="G158" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" t="s">
         <v>150</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>54.6</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>1.56</v>
       </c>
-      <c r="J158">
+      <c r="K158">
         <v>12.387600000000001</v>
       </c>
-      <c r="K158">
+      <c r="L158">
         <v>15.59</v>
       </c>
-      <c r="L158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C159" s="1"/>
-      <c r="D159">
+      <c r="D159" s="1"/>
+      <c r="E159">
         <v>2022</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>162</v>
       </c>
-      <c r="F159" t="s">
-        <v>11</v>
-      </c>
       <c r="G159" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" t="s">
         <v>150</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>12.5</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>2.63</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <v>10.728899999999999</v>
       </c>
-      <c r="K159">
+      <c r="L159">
         <v>11.38</v>
       </c>
-      <c r="L159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C160" s="1"/>
-      <c r="D160">
+      <c r="D160" s="1"/>
+      <c r="E160">
         <v>2023</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>163</v>
       </c>
-      <c r="F160" t="s">
-        <v>11</v>
-      </c>
       <c r="G160" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" t="s">
         <v>150</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>44.2</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>0.76</v>
       </c>
-      <c r="J160">
+      <c r="K160">
         <v>7.4363999999999999</v>
       </c>
-      <c r="K160">
+      <c r="L160">
         <v>13.09</v>
       </c>
-      <c r="L160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C161" s="1"/>
-      <c r="D161">
+      <c r="D161" s="1"/>
+      <c r="E161">
         <v>2024</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>164</v>
       </c>
-      <c r="F161" t="s">
-        <v>11</v>
-      </c>
       <c r="G161" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" t="s">
         <v>150</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>36</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J161">
+      <c r="K161">
         <v>7.2805</v>
       </c>
-      <c r="K161">
+      <c r="L161">
         <v>14.59</v>
       </c>
-      <c r="L161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C162" s="1"/>
-      <c r="D162">
+      <c r="D162" s="1"/>
+      <c r="E162">
         <v>2025</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>165</v>
       </c>
-      <c r="F162" t="s">
-        <v>11</v>
-      </c>
       <c r="G162" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" t="s">
         <v>148</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>125.5</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>2.54</v>
       </c>
-      <c r="J162">
+      <c r="K162">
         <v>4.6646999999999998</v>
       </c>
-      <c r="K162">
+      <c r="L162">
         <v>21.08</v>
       </c>
-      <c r="L162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C163" s="1"/>
-      <c r="D163">
+      <c r="D163" s="1"/>
+      <c r="E163">
         <v>2026</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>166</v>
       </c>
-      <c r="F163" t="s">
-        <v>11</v>
-      </c>
       <c r="G163" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" t="s">
         <v>150</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>1717.4</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>0.84</v>
       </c>
-      <c r="J163">
+      <c r="K163">
         <v>15.710699999999999</v>
       </c>
-      <c r="K163">
+      <c r="L163">
         <v>11.79</v>
       </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data-processed/new_refs_contribution_to_seanuts_edited.xlsx
+++ b/data-processed/new_refs_contribution_to_seanuts_edited.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="new_refs_contribution_to_seanut" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">new_refs_contribution_to_seanut!$A$1:$N$163</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="205">
   <si>
     <t>bibliography</t>
   </si>
@@ -1038,6 +1041,12 @@
   </si>
   <si>
     <t>sea11</t>
+  </si>
+  <si>
+    <t>part_edited</t>
+  </si>
+  <si>
+    <t>muscle</t>
   </si>
 </sst>
 </file>
@@ -1366,23 +1375,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M163"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143:B163"/>
+      <selection activeCell="C143" sqref="C143:C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" customWidth="1"/>
+    <col min="1" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1390,40 +1400,43 @@
         <v>191</v>
       </c>
       <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
         <v>178</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>188</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>167</v>
       </c>
@@ -1431,38 +1444,41 @@
         <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2">
+        <v>179</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2">
         <v>1738</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>32.799999999999997</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2">
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2">
         <v>2.46</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>167</v>
       </c>
@@ -1470,27 +1486,27 @@
         <v>192</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3">
+        <v>179</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3">
         <v>1739</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>34.4</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
@@ -1500,8 +1516,11 @@
       <c r="M3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>167</v>
       </c>
@@ -1509,38 +1528,41 @@
         <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4">
+        <v>179</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4">
         <v>1740</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4">
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4">
         <v>7.65</v>
       </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4">
         <v>82.46</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>167</v>
       </c>
@@ -1548,38 +1570,41 @@
         <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5">
+        <v>179</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5">
         <v>1741</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5">
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
         <v>0.1071</v>
       </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5">
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5">
         <v>1.2186999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -1587,38 +1612,41 @@
         <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6">
+        <v>179</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6">
         <v>1770</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>236.8</v>
       </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
         <v>7.79</v>
       </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6">
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -1626,38 +1654,41 @@
         <v>193</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7">
+        <v>179</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7">
         <v>1771</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>91.3</v>
       </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7">
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7">
         <v>4.12</v>
       </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7">
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7">
         <v>98.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>168</v>
       </c>
@@ -1665,38 +1696,41 @@
         <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8">
+        <v>179</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8">
         <v>1772</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
       <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>128.30000000000001</v>
       </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8">
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
         <v>4.76</v>
       </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8">
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>168</v>
       </c>
@@ -1704,38 +1738,41 @@
         <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9">
+        <v>179</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9">
         <v>1773</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
       <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>205.5</v>
       </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9">
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
         <v>5.19</v>
       </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9">
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9">
         <v>92.8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>168</v>
       </c>
@@ -1743,38 +1780,41 @@
         <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10">
+        <v>179</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10">
         <v>1774</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>133.6</v>
       </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10">
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10">
         <v>4.96</v>
       </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10">
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10">
         <v>61.2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>168</v>
       </c>
@@ -1782,38 +1822,41 @@
         <v>193</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11">
+        <v>179</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11">
         <v>1775</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
       <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
         <v>24</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>60.6</v>
       </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11">
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11">
         <v>3.78</v>
       </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11">
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11">
         <v>45.7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>168</v>
       </c>
@@ -1821,38 +1864,41 @@
         <v>193</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12">
+        <v>179</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12">
         <v>1776</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
       <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
         <v>25</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>261.60000000000002</v>
       </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12">
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12">
         <v>3.21</v>
       </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12">
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12">
         <v>101.9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>168</v>
       </c>
@@ -1860,38 +1906,41 @@
         <v>193</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13">
+        <v>179</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13">
         <v>1777</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>126.7</v>
       </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13">
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13">
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -1899,38 +1948,41 @@
         <v>193</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14">
+        <v>179</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14">
         <v>1778</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>53.1</v>
       </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14">
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14">
         <v>3.29</v>
       </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14">
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14">
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>168</v>
       </c>
@@ -1938,38 +1990,41 @@
         <v>193</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15">
+        <v>179</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15">
         <v>1779</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
       <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
         <v>20</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>50.5</v>
       </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15">
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15">
         <v>1.65</v>
       </c>
-      <c r="L15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15">
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15">
         <v>3.08</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>168</v>
       </c>
@@ -1977,38 +2032,41 @@
         <v>193</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16">
+        <v>179</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16">
         <v>1780</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
         <v>28</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>67.3</v>
       </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16">
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16">
         <v>9.41</v>
       </c>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16">
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16">
         <v>1.77</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>168</v>
       </c>
@@ -2016,38 +2074,41 @@
         <v>193</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17">
+        <v>179</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17">
         <v>1781</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>27</v>
       </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
       <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
         <v>29</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>44.7</v>
       </c>
-      <c r="J17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17">
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17">
         <v>1.61</v>
       </c>
-      <c r="L17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17">
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17">
         <v>5.28</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>168</v>
       </c>
@@ -2055,38 +2116,41 @@
         <v>193</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18">
+        <v>179</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18">
         <v>1782</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>27</v>
       </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
       <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
         <v>25</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>73.2</v>
       </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18">
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18">
         <v>9.44</v>
       </c>
-      <c r="L18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18">
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18">
         <v>2.59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -2094,38 +2158,41 @@
         <v>193</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19">
+        <v>179</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19">
         <v>1783</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
       <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
         <v>22</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>81.099999999999994</v>
       </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19">
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19">
         <v>10.9</v>
       </c>
-      <c r="L19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19">
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19">
         <v>2.39</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>168</v>
       </c>
@@ -2133,38 +2200,41 @@
         <v>193</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20">
+        <v>179</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20">
         <v>1784</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>27</v>
       </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
       <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
         <v>23</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>43.8</v>
       </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20">
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20">
         <v>3.61</v>
       </c>
-      <c r="L20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20">
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20">
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>168</v>
       </c>
@@ -2172,38 +2242,41 @@
         <v>193</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21">
+        <v>179</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21">
         <v>1785</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>27</v>
       </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
       <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
         <v>24</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>65.5</v>
       </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21">
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21">
         <v>5.94</v>
       </c>
-      <c r="L21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21">
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21">
         <v>2.33</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>168</v>
       </c>
@@ -2211,38 +2284,41 @@
         <v>193</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22">
+        <v>179</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22">
         <v>1786</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>27</v>
       </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
       <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>42.9</v>
       </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22">
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22">
         <v>1.64</v>
       </c>
-      <c r="L22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22">
+      <c r="M22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22">
         <v>2.44</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -2250,38 +2326,41 @@
         <v>193</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23">
+        <v>179</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23">
         <v>1787</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>27</v>
       </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
       <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
         <v>30</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>78.5</v>
       </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23">
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23">
         <v>2.38</v>
       </c>
-      <c r="L23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23">
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23">
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>169</v>
       </c>
@@ -2289,38 +2368,41 @@
         <v>194</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24">
+        <v>179</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24">
         <v>1753</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
       <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
         <v>31</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>23.601700000000001</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2.04</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1.7316</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>9.2799999999999994</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>19.2468</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>169</v>
       </c>
@@ -2328,38 +2410,41 @@
         <v>194</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25">
+        <v>179</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25">
         <v>1754</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
       <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
         <v>31</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>23.390499999999999</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1.92</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4.0373999999999999</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>9.09</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>86.2042</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>169</v>
       </c>
@@ -2367,38 +2452,41 @@
         <v>194</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26">
+        <v>179</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26">
         <v>1755</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
       <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
         <v>31</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>25.8339</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.4</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2.1842000000000001</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>10.3</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>58.729900000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>169</v>
       </c>
@@ -2406,38 +2494,41 @@
         <v>194</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27">
+        <v>179</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27">
         <v>1756</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
       <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
         <v>31</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>30.267299999999999</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>5.51</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5.2411000000000003</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>9.74</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>29.011399999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>169</v>
       </c>
@@ -2445,38 +2536,41 @@
         <v>194</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28">
+        <v>179</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28">
         <v>1757</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>18</v>
       </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
       <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
         <v>31</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>44.787599999999998</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1.47</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.349</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>9.32</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>41.819699999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>169</v>
       </c>
@@ -2484,38 +2578,41 @@
         <v>194</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29">
+        <v>179</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29">
         <v>1758</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
       <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
         <v>31</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>54.865299999999998</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2.04</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>3.9096000000000002</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>8.7100000000000009</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>49.695900000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
@@ -2523,38 +2620,41 @@
         <v>194</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30">
+        <v>179</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30">
         <v>1759</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>18</v>
       </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
       <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
         <v>31</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>20.133400000000002</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.69</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2.1564999999999999</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>6.85</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>26.9619</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>170</v>
       </c>
@@ -2562,66 +2662,65 @@
         <v>195</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1678</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>32</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
       <c r="I31" t="s">
         <v>13</v>
       </c>
       <c r="J31" t="s">
         <v>13</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31">
         <v>2.4</v>
       </c>
-      <c r="L31" t="s">
-        <v>13</v>
-      </c>
       <c r="M31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32">
         <v>1760</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>33</v>
       </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
       <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
         <v>34</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>58.498446389999998</v>
       </c>
-      <c r="J32" t="s">
-        <v>13</v>
-      </c>
       <c r="K32" t="s">
         <v>13</v>
       </c>
@@ -2631,72 +2730,74 @@
       <c r="M32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33">
         <v>1760</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>33</v>
       </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
       <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
         <v>35</v>
       </c>
-      <c r="I33" t="s">
-        <v>13</v>
-      </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33">
         <v>6.9126213590000001</v>
       </c>
-      <c r="L33" t="s">
-        <v>13</v>
-      </c>
       <c r="M33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34">
         <v>1760</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>33</v>
       </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
       <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
         <v>36</v>
       </c>
-      <c r="I34" t="s">
-        <v>13</v>
-      </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
@@ -2706,39 +2807,40 @@
       <c r="L34" t="s">
         <v>13</v>
       </c>
-      <c r="M34">
+      <c r="M34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34">
         <v>87.166559179999993</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35">
         <v>1761</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>33</v>
       </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
       <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
         <v>37</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>79.892126399999995</v>
       </c>
-      <c r="J35" t="s">
-        <v>13</v>
-      </c>
       <c r="K35" t="s">
         <v>13</v>
       </c>
@@ -2748,72 +2850,74 @@
       <c r="M35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36">
         <v>1761</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>33</v>
       </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
       <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
         <v>38</v>
       </c>
-      <c r="I36" t="s">
-        <v>13</v>
-      </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36">
         <v>2.0582524270000002</v>
       </c>
-      <c r="L36" t="s">
-        <v>13</v>
-      </c>
       <c r="M36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37">
         <v>1761</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>33</v>
       </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
       <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
         <v>39</v>
       </c>
-      <c r="I37" t="s">
-        <v>13</v>
-      </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
@@ -2823,39 +2927,40 @@
       <c r="L37" t="s">
         <v>13</v>
       </c>
-      <c r="M37">
+      <c r="M37" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37">
         <v>47.357448550000001</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38">
         <v>1762</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>33</v>
       </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
       <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
         <v>40</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>87.340094980000003</v>
       </c>
-      <c r="J38" t="s">
-        <v>13</v>
-      </c>
       <c r="K38" t="s">
         <v>13</v>
       </c>
@@ -2865,72 +2970,74 @@
       <c r="M38" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39">
         <v>1762</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>33</v>
       </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
       <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
         <v>41</v>
       </c>
-      <c r="I39" t="s">
-        <v>13</v>
-      </c>
       <c r="J39" t="s">
         <v>13</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39">
         <v>3.902912621</v>
       </c>
-      <c r="L39" t="s">
-        <v>13</v>
-      </c>
       <c r="M39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40">
         <v>1762</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>33</v>
       </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
       <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
         <v>42</v>
       </c>
-      <c r="I40" t="s">
-        <v>13</v>
-      </c>
       <c r="J40" t="s">
         <v>13</v>
       </c>
@@ -2940,39 +3047,40 @@
       <c r="L40" t="s">
         <v>13</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40">
         <v>58.664477929999997</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41">
         <v>1763</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>33</v>
       </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
       <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
         <v>43</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>64.18197807</v>
       </c>
-      <c r="J41" t="s">
-        <v>13</v>
-      </c>
       <c r="K41" t="s">
         <v>13</v>
       </c>
@@ -2982,72 +3090,74 @@
       <c r="M41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42">
         <v>1763</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>33</v>
       </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
       <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
         <v>44</v>
       </c>
-      <c r="I42" t="s">
-        <v>13</v>
-      </c>
       <c r="J42" t="s">
         <v>13</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42">
         <v>0.95145631100000005</v>
       </c>
-      <c r="L42" t="s">
-        <v>13</v>
-      </c>
       <c r="M42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43">
         <v>1763</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>33</v>
       </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
       <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
         <v>45</v>
       </c>
-      <c r="I43" t="s">
-        <v>13</v>
-      </c>
       <c r="J43" t="s">
         <v>13</v>
       </c>
@@ -3057,39 +3167,40 @@
       <c r="L43" t="s">
         <v>13</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43">
         <v>23.506126519999999</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44">
         <v>1764</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>33</v>
       </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
       <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
         <v>46</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>42.185143930000002</v>
       </c>
-      <c r="J44" t="s">
-        <v>13</v>
-      </c>
       <c r="K44" t="s">
         <v>13</v>
       </c>
@@ -3099,72 +3210,74 @@
       <c r="M44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45">
         <v>1764</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>33</v>
       </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
       <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
         <v>47</v>
       </c>
-      <c r="I45" t="s">
-        <v>13</v>
-      </c>
       <c r="J45" t="s">
         <v>13</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45">
         <v>2</v>
       </c>
-      <c r="L45" t="s">
-        <v>13</v>
-      </c>
       <c r="M45" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46">
         <v>1764</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>33</v>
       </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
       <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
         <v>48</v>
       </c>
-      <c r="I46" t="s">
-        <v>13</v>
-      </c>
       <c r="J46" t="s">
         <v>13</v>
       </c>
@@ -3174,39 +3287,40 @@
       <c r="L46" t="s">
         <v>13</v>
       </c>
-      <c r="M46">
+      <c r="M46" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46">
         <v>54.584041740000004</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47">
         <v>1765</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>33</v>
       </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
       <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
         <v>49</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>37.237028789999997</v>
       </c>
-      <c r="J47" t="s">
-        <v>13</v>
-      </c>
       <c r="K47" t="s">
         <v>13</v>
       </c>
@@ -3216,72 +3330,74 @@
       <c r="M47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48">
         <v>1765</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>33</v>
       </c>
-      <c r="G48" t="s">
-        <v>11</v>
-      </c>
       <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
         <v>50</v>
       </c>
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
       <c r="J48" t="s">
         <v>13</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48">
         <v>1.126213592</v>
       </c>
-      <c r="L48" t="s">
-        <v>13</v>
-      </c>
       <c r="M48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49">
         <v>1765</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>33</v>
       </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
       <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
         <v>51</v>
       </c>
-      <c r="I49" t="s">
-        <v>13</v>
-      </c>
       <c r="J49" t="s">
         <v>13</v>
       </c>
@@ -3291,351 +3407,360 @@
       <c r="L49" t="s">
         <v>13</v>
       </c>
-      <c r="M49">
+      <c r="M49" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49">
         <v>33.749428389999999</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50">
+      <c r="E50" s="1"/>
+      <c r="F50">
         <v>384</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>14</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>15</v>
       </c>
-      <c r="H50" t="s">
-        <v>13</v>
-      </c>
       <c r="I50" t="s">
         <v>13</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50">
         <v>0.79</v>
       </c>
-      <c r="K50" t="s">
-        <v>13</v>
-      </c>
       <c r="L50" t="s">
         <v>13</v>
       </c>
       <c r="M50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51">
+      <c r="E51" s="1"/>
+      <c r="F51">
         <v>385</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>14</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>15</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>182</v>
       </c>
-      <c r="I51" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51">
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51">
         <v>0.64</v>
       </c>
-      <c r="K51" t="s">
-        <v>13</v>
-      </c>
       <c r="L51" t="s">
         <v>13</v>
       </c>
       <c r="M51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52">
+      <c r="E52" s="1"/>
+      <c r="F52">
         <v>962</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>52</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>15</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>183</v>
       </c>
-      <c r="I52" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52">
+      <c r="J52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52">
         <v>0.81</v>
       </c>
-      <c r="K52" t="s">
-        <v>13</v>
-      </c>
       <c r="L52" t="s">
         <v>13</v>
       </c>
       <c r="M52" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53">
+      <c r="E53" s="1"/>
+      <c r="F53">
         <v>963</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>52</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>15</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>184</v>
       </c>
-      <c r="I53" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53">
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53">
         <v>1.21</v>
       </c>
-      <c r="K53" t="s">
-        <v>13</v>
-      </c>
       <c r="L53" t="s">
         <v>13</v>
       </c>
       <c r="M53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54">
+      <c r="E54" s="1"/>
+      <c r="F54">
         <v>1749</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>14</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>15</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>53</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>149.19999999999999</v>
       </c>
-      <c r="J54" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54">
+      <c r="K54" t="s">
+        <v>13</v>
+      </c>
+      <c r="L54">
         <v>1.04</v>
       </c>
-      <c r="L54" t="s">
-        <v>13</v>
-      </c>
-      <c r="M54">
+      <c r="M54" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54">
         <v>6.99</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55">
+      <c r="E55" s="1"/>
+      <c r="F55">
         <v>1750</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>14</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>15</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>53</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>64.900000000000006</v>
       </c>
-      <c r="J55" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55">
+      <c r="K55" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L55" t="s">
-        <v>13</v>
-      </c>
-      <c r="M55">
+      <c r="M55" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55">
         <v>4.7</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56">
+      <c r="E56" s="1"/>
+      <c r="F56">
         <v>1751</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>52</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>15</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>53</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>150.9</v>
       </c>
-      <c r="J56" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56">
+      <c r="K56" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56">
         <v>0.45</v>
       </c>
-      <c r="L56" t="s">
-        <v>13</v>
-      </c>
-      <c r="M56">
+      <c r="M56" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56">
         <v>4.68</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57">
+      <c r="E57" s="1"/>
+      <c r="F57">
         <v>1752</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>52</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>15</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>53</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>87.6</v>
       </c>
-      <c r="J57" t="s">
-        <v>13</v>
-      </c>
-      <c r="K57">
+      <c r="K57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57">
         <v>0.68</v>
       </c>
-      <c r="L57" t="s">
-        <v>13</v>
-      </c>
-      <c r="M57">
+      <c r="M57" t="s">
+        <v>13</v>
+      </c>
+      <c r="N57">
         <v>3.72</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58">
+      <c r="E58" s="1"/>
+      <c r="F58">
         <v>1732</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>54</v>
       </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
       <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
         <v>55</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>39.848999999999997</v>
       </c>
-      <c r="J58" t="s">
-        <v>13</v>
-      </c>
       <c r="K58" t="s">
         <v>13</v>
       </c>
@@ -3645,72 +3770,74 @@
       <c r="M58" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59">
+      <c r="E59" s="1"/>
+      <c r="F59">
         <v>1732</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>54</v>
       </c>
-      <c r="G59" t="s">
-        <v>11</v>
-      </c>
       <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
         <v>56</v>
       </c>
-      <c r="I59" t="s">
-        <v>13</v>
-      </c>
       <c r="J59" t="s">
         <v>13</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59">
         <v>3.7749999999999999</v>
       </c>
-      <c r="L59" t="s">
-        <v>13</v>
-      </c>
       <c r="M59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60">
+      <c r="E60" s="1"/>
+      <c r="F60">
         <v>1732</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>54</v>
       </c>
-      <c r="G60" t="s">
-        <v>11</v>
-      </c>
       <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
         <v>57</v>
       </c>
-      <c r="I60" t="s">
-        <v>13</v>
-      </c>
       <c r="J60" t="s">
         <v>13</v>
       </c>
@@ -3720,39 +3847,40 @@
       <c r="L60" t="s">
         <v>13</v>
       </c>
-      <c r="M60">
+      <c r="M60" t="s">
+        <v>13</v>
+      </c>
+      <c r="N60">
         <v>2.1259999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61">
+      <c r="E61" s="1"/>
+      <c r="F61">
         <v>1733</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>54</v>
       </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
       <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
         <v>58</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>149.19900000000001</v>
       </c>
-      <c r="J61" t="s">
-        <v>13</v>
-      </c>
       <c r="K61" t="s">
         <v>13</v>
       </c>
@@ -3762,72 +3890,74 @@
       <c r="M61" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62">
+      <c r="E62" s="1"/>
+      <c r="F62">
         <v>1733</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>54</v>
       </c>
-      <c r="G62" t="s">
-        <v>11</v>
-      </c>
       <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
         <v>59</v>
       </c>
-      <c r="I62" t="s">
-        <v>13</v>
-      </c>
       <c r="J62" t="s">
         <v>13</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="s">
+        <v>13</v>
+      </c>
+      <c r="L62">
         <v>8.2569999999999997</v>
       </c>
-      <c r="L62" t="s">
-        <v>13</v>
-      </c>
       <c r="M62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63">
+      <c r="E63" s="1"/>
+      <c r="F63">
         <v>1733</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>54</v>
       </c>
-      <c r="G63" t="s">
-        <v>11</v>
-      </c>
       <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
         <v>60</v>
       </c>
-      <c r="I63" t="s">
-        <v>13</v>
-      </c>
       <c r="J63" t="s">
         <v>13</v>
       </c>
@@ -3837,39 +3967,40 @@
       <c r="L63" t="s">
         <v>13</v>
       </c>
-      <c r="M63">
+      <c r="M63" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63">
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64">
+      <c r="E64" s="1"/>
+      <c r="F64">
         <v>1734</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>54</v>
       </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
       <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
         <v>61</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>95.346000000000004</v>
       </c>
-      <c r="J64" t="s">
-        <v>13</v>
-      </c>
       <c r="K64" t="s">
         <v>13</v>
       </c>
@@ -3879,72 +4010,74 @@
       <c r="M64" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65">
+      <c r="E65" s="1"/>
+      <c r="F65">
         <v>1734</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>54</v>
       </c>
-      <c r="G65" t="s">
-        <v>11</v>
-      </c>
       <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
         <v>62</v>
       </c>
-      <c r="I65" t="s">
-        <v>13</v>
-      </c>
       <c r="J65" t="s">
         <v>13</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L65">
         <v>27.613</v>
       </c>
-      <c r="L65" t="s">
-        <v>13</v>
-      </c>
       <c r="M65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66">
+      <c r="E66" s="1"/>
+      <c r="F66">
         <v>1734</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>54</v>
       </c>
-      <c r="G66" t="s">
-        <v>11</v>
-      </c>
       <c r="H66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
         <v>63</v>
       </c>
-      <c r="I66" t="s">
-        <v>13</v>
-      </c>
       <c r="J66" t="s">
         <v>13</v>
       </c>
@@ -3954,11 +4087,14 @@
       <c r="L66" t="s">
         <v>13</v>
       </c>
-      <c r="M66">
+      <c r="M66" t="s">
+        <v>13</v>
+      </c>
+      <c r="N66">
         <v>2.0249999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>174</v>
       </c>
@@ -3966,24 +4102,22 @@
         <v>199</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>1694</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>64</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>15</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>65</v>
       </c>
-      <c r="I67" t="s">
-        <v>13</v>
-      </c>
       <c r="J67" t="s">
         <v>13</v>
       </c>
@@ -3993,11 +4127,14 @@
       <c r="L67" t="s">
         <v>13</v>
       </c>
-      <c r="M67">
+      <c r="M67" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67">
         <v>7.25</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>174</v>
       </c>
@@ -4005,24 +4142,22 @@
         <v>199</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1695</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>64</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>15</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>65</v>
       </c>
-      <c r="I68" t="s">
-        <v>13</v>
-      </c>
       <c r="J68" t="s">
         <v>13</v>
       </c>
@@ -4032,11 +4167,14 @@
       <c r="L68" t="s">
         <v>13</v>
       </c>
-      <c r="M68">
+      <c r="M68" t="s">
+        <v>13</v>
+      </c>
+      <c r="N68">
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>174</v>
       </c>
@@ -4044,24 +4182,22 @@
         <v>199</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>1696</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>64</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>15</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>65</v>
       </c>
-      <c r="I69" t="s">
-        <v>13</v>
-      </c>
       <c r="J69" t="s">
         <v>13</v>
       </c>
@@ -4071,11 +4207,14 @@
       <c r="L69" t="s">
         <v>13</v>
       </c>
-      <c r="M69">
+      <c r="M69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N69">
         <v>6.73</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>174</v>
       </c>
@@ -4083,24 +4222,22 @@
         <v>199</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>1697</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>64</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>15</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>65</v>
       </c>
-      <c r="I70" t="s">
-        <v>13</v>
-      </c>
       <c r="J70" t="s">
         <v>13</v>
       </c>
@@ -4110,11 +4247,14 @@
       <c r="L70" t="s">
         <v>13</v>
       </c>
-      <c r="M70">
+      <c r="M70" t="s">
+        <v>13</v>
+      </c>
+      <c r="N70">
         <v>5.8</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>174</v>
       </c>
@@ -4122,24 +4262,22 @@
         <v>199</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>1698</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>64</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>15</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>65</v>
       </c>
-      <c r="I71" t="s">
-        <v>13</v>
-      </c>
       <c r="J71" t="s">
         <v>13</v>
       </c>
@@ -4149,11 +4287,14 @@
       <c r="L71" t="s">
         <v>13</v>
       </c>
-      <c r="M71">
+      <c r="M71" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71">
         <v>6.09</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>174</v>
       </c>
@@ -4161,24 +4302,22 @@
         <v>199</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>1699</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>66</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>15</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>67</v>
       </c>
-      <c r="I72" t="s">
-        <v>13</v>
-      </c>
       <c r="J72" t="s">
         <v>13</v>
       </c>
@@ -4188,11 +4327,14 @@
       <c r="L72" t="s">
         <v>13</v>
       </c>
-      <c r="M72">
+      <c r="M72" t="s">
+        <v>13</v>
+      </c>
+      <c r="N72">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>174</v>
       </c>
@@ -4200,24 +4342,22 @@
         <v>199</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>1700</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>66</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>15</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>68</v>
       </c>
-      <c r="I73" t="s">
-        <v>13</v>
-      </c>
       <c r="J73" t="s">
         <v>13</v>
       </c>
@@ -4227,11 +4367,14 @@
       <c r="L73" t="s">
         <v>13</v>
       </c>
-      <c r="M73">
+      <c r="M73" t="s">
+        <v>13</v>
+      </c>
+      <c r="N73">
         <v>7.8</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>174</v>
       </c>
@@ -4239,24 +4382,22 @@
         <v>199</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>1701</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>66</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>15</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>69</v>
       </c>
-      <c r="I74" t="s">
-        <v>13</v>
-      </c>
       <c r="J74" t="s">
         <v>13</v>
       </c>
@@ -4266,11 +4407,14 @@
       <c r="L74" t="s">
         <v>13</v>
       </c>
-      <c r="M74">
+      <c r="M74" t="s">
+        <v>13</v>
+      </c>
+      <c r="N74">
         <v>8.33</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>174</v>
       </c>
@@ -4278,24 +4422,22 @@
         <v>199</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>1702</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>66</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>15</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>70</v>
       </c>
-      <c r="I75" t="s">
-        <v>13</v>
-      </c>
       <c r="J75" t="s">
         <v>13</v>
       </c>
@@ -4305,11 +4447,14 @@
       <c r="L75" t="s">
         <v>13</v>
       </c>
-      <c r="M75">
+      <c r="M75" t="s">
+        <v>13</v>
+      </c>
+      <c r="N75">
         <v>7.57</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
@@ -4317,24 +4462,22 @@
         <v>199</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>1703</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>66</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>15</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>71</v>
       </c>
-      <c r="I76" t="s">
-        <v>13</v>
-      </c>
       <c r="J76" t="s">
         <v>13</v>
       </c>
@@ -4344,11 +4487,14 @@
       <c r="L76" t="s">
         <v>13</v>
       </c>
-      <c r="M76">
+      <c r="M76" t="s">
+        <v>13</v>
+      </c>
+      <c r="N76">
         <v>5.76</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>174</v>
       </c>
@@ -4356,24 +4502,22 @@
         <v>199</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>1704</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>72</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>15</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>73</v>
       </c>
-      <c r="I77" t="s">
-        <v>13</v>
-      </c>
       <c r="J77" t="s">
         <v>13</v>
       </c>
@@ -4383,11 +4527,14 @@
       <c r="L77" t="s">
         <v>13</v>
       </c>
-      <c r="M77">
+      <c r="M77" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77">
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>174</v>
       </c>
@@ -4395,24 +4542,22 @@
         <v>199</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>1705</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>72</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>15</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>73</v>
       </c>
-      <c r="I78" t="s">
-        <v>13</v>
-      </c>
       <c r="J78" t="s">
         <v>13</v>
       </c>
@@ -4422,11 +4567,14 @@
       <c r="L78" t="s">
         <v>13</v>
       </c>
-      <c r="M78">
+      <c r="M78" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78">
         <v>7.83</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>174</v>
       </c>
@@ -4434,24 +4582,22 @@
         <v>199</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>1706</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>72</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>15</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>73</v>
       </c>
-      <c r="I79" t="s">
-        <v>13</v>
-      </c>
       <c r="J79" t="s">
         <v>13</v>
       </c>
@@ -4461,11 +4607,14 @@
       <c r="L79" t="s">
         <v>13</v>
       </c>
-      <c r="M79">
+      <c r="M79" t="s">
+        <v>13</v>
+      </c>
+      <c r="N79">
         <v>5.2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>174</v>
       </c>
@@ -4473,24 +4622,22 @@
         <v>199</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>1707</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>72</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>15</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>73</v>
       </c>
-      <c r="I80" t="s">
-        <v>13</v>
-      </c>
       <c r="J80" t="s">
         <v>13</v>
       </c>
@@ -4500,11 +4647,14 @@
       <c r="L80" t="s">
         <v>13</v>
       </c>
-      <c r="M80">
+      <c r="M80" t="s">
+        <v>13</v>
+      </c>
+      <c r="N80">
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>174</v>
       </c>
@@ -4512,24 +4662,22 @@
         <v>199</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>1708</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>72</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>15</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>73</v>
       </c>
-      <c r="I81" t="s">
-        <v>13</v>
-      </c>
       <c r="J81" t="s">
         <v>13</v>
       </c>
@@ -4539,39 +4687,40 @@
       <c r="L81" t="s">
         <v>13</v>
       </c>
-      <c r="M81">
+      <c r="M81" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81">
         <v>5.6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82">
         <v>1721</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>74</v>
       </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
       <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
         <v>75</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>83</v>
       </c>
-      <c r="J82" t="s">
-        <v>13</v>
-      </c>
       <c r="K82" t="s">
         <v>13</v>
       </c>
@@ -4581,72 +4730,74 @@
       <c r="M82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83">
         <v>1721</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>74</v>
       </c>
-      <c r="G83" t="s">
-        <v>11</v>
-      </c>
       <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" t="s">
         <v>76</v>
       </c>
-      <c r="I83" t="s">
-        <v>13</v>
-      </c>
       <c r="J83" t="s">
         <v>13</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="s">
+        <v>13</v>
+      </c>
+      <c r="L83">
         <v>55.1</v>
       </c>
-      <c r="L83" t="s">
-        <v>13</v>
-      </c>
       <c r="M83" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84">
         <v>1721</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>74</v>
       </c>
-      <c r="G84" t="s">
-        <v>11</v>
-      </c>
       <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
         <v>77</v>
       </c>
-      <c r="I84" t="s">
-        <v>13</v>
-      </c>
       <c r="J84" t="s">
         <v>13</v>
       </c>
@@ -4656,39 +4807,40 @@
       <c r="L84" t="s">
         <v>13</v>
       </c>
-      <c r="M84">
+      <c r="M84" t="s">
+        <v>13</v>
+      </c>
+      <c r="N84">
         <v>0.85</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" s="1"/>
-      <c r="E85">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85">
         <v>1722</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>78</v>
       </c>
-      <c r="G85" t="s">
-        <v>11</v>
-      </c>
       <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="s">
         <v>79</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>60</v>
       </c>
-      <c r="J85" t="s">
-        <v>13</v>
-      </c>
       <c r="K85" t="s">
         <v>13</v>
       </c>
@@ -4698,72 +4850,74 @@
       <c r="M85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86">
         <v>1722</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>78</v>
       </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
       <c r="H86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" t="s">
         <v>80</v>
       </c>
-      <c r="I86" t="s">
-        <v>13</v>
-      </c>
       <c r="J86" t="s">
         <v>13</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="s">
+        <v>13</v>
+      </c>
+      <c r="L86">
         <v>4.32</v>
       </c>
-      <c r="L86" t="s">
-        <v>13</v>
-      </c>
       <c r="M86" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87">
         <v>1722</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>78</v>
       </c>
-      <c r="G87" t="s">
-        <v>11</v>
-      </c>
       <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
         <v>81</v>
       </c>
-      <c r="I87" t="s">
-        <v>13</v>
-      </c>
       <c r="J87" t="s">
         <v>13</v>
       </c>
@@ -4773,39 +4927,40 @@
       <c r="L87" t="s">
         <v>13</v>
       </c>
-      <c r="M87">
+      <c r="M87" t="s">
+        <v>13</v>
+      </c>
+      <c r="N87">
         <v>0.998</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88">
         <v>1723</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>82</v>
       </c>
-      <c r="G88" t="s">
-        <v>11</v>
-      </c>
       <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
         <v>83</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>93</v>
       </c>
-      <c r="J88" t="s">
-        <v>13</v>
-      </c>
       <c r="K88" t="s">
         <v>13</v>
       </c>
@@ -4815,72 +4970,74 @@
       <c r="M88" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D89" s="1"/>
-      <c r="E89">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89">
         <v>1723</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>82</v>
       </c>
-      <c r="G89" t="s">
-        <v>11</v>
-      </c>
       <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
         <v>84</v>
       </c>
-      <c r="I89" t="s">
-        <v>13</v>
-      </c>
       <c r="J89" t="s">
         <v>13</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="s">
+        <v>13</v>
+      </c>
+      <c r="L89">
         <v>2.52</v>
       </c>
-      <c r="L89" t="s">
-        <v>13</v>
-      </c>
       <c r="M89" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90">
         <v>1723</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>82</v>
       </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
       <c r="H90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
         <v>85</v>
       </c>
-      <c r="I90" t="s">
-        <v>13</v>
-      </c>
       <c r="J90" t="s">
         <v>13</v>
       </c>
@@ -4890,39 +5047,40 @@
       <c r="L90" t="s">
         <v>13</v>
       </c>
-      <c r="M90">
+      <c r="M90" t="s">
+        <v>13</v>
+      </c>
+      <c r="N90">
         <v>3.54</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91">
         <v>1724</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>86</v>
       </c>
-      <c r="G91" t="s">
-        <v>11</v>
-      </c>
       <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
         <v>87</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>102</v>
       </c>
-      <c r="J91" t="s">
-        <v>13</v>
-      </c>
       <c r="K91" t="s">
         <v>13</v>
       </c>
@@ -4932,72 +5090,74 @@
       <c r="M91" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92">
         <v>1724</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>86</v>
       </c>
-      <c r="G92" t="s">
-        <v>11</v>
-      </c>
       <c r="H92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" t="s">
         <v>88</v>
       </c>
-      <c r="I92" t="s">
-        <v>13</v>
-      </c>
       <c r="J92" t="s">
         <v>13</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="s">
+        <v>13</v>
+      </c>
+      <c r="L92">
         <v>4.62</v>
       </c>
-      <c r="L92" t="s">
-        <v>13</v>
-      </c>
       <c r="M92" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D93" s="1"/>
-      <c r="E93">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93">
         <v>1724</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>86</v>
       </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
       <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" t="s">
         <v>89</v>
       </c>
-      <c r="I93" t="s">
-        <v>13</v>
-      </c>
       <c r="J93" t="s">
         <v>13</v>
       </c>
@@ -5007,39 +5167,40 @@
       <c r="L93" t="s">
         <v>13</v>
       </c>
-      <c r="M93">
+      <c r="M93" t="s">
+        <v>13</v>
+      </c>
+      <c r="N93">
         <v>2.25</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D94" s="1"/>
-      <c r="E94">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94">
         <v>1725</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>90</v>
       </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
       <c r="H94" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" t="s">
         <v>91</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>27</v>
       </c>
-      <c r="J94" t="s">
-        <v>13</v>
-      </c>
       <c r="K94" t="s">
         <v>13</v>
       </c>
@@ -5049,72 +5210,74 @@
       <c r="M94" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D95" s="1"/>
-      <c r="E95">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95">
         <v>1725</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>90</v>
       </c>
-      <c r="G95" t="s">
-        <v>11</v>
-      </c>
       <c r="H95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" t="s">
         <v>92</v>
       </c>
-      <c r="I95" t="s">
-        <v>13</v>
-      </c>
       <c r="J95" t="s">
         <v>13</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="s">
+        <v>13</v>
+      </c>
+      <c r="L95">
         <v>8.11</v>
       </c>
-      <c r="L95" t="s">
-        <v>13</v>
-      </c>
       <c r="M95" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D96" s="1"/>
-      <c r="E96">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96">
         <v>1725</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>90</v>
       </c>
-      <c r="G96" t="s">
-        <v>11</v>
-      </c>
       <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="s">
         <v>93</v>
       </c>
-      <c r="I96" t="s">
-        <v>13</v>
-      </c>
       <c r="J96" t="s">
         <v>13</v>
       </c>
@@ -5124,39 +5287,40 @@
       <c r="L96" t="s">
         <v>13</v>
       </c>
-      <c r="M96">
+      <c r="M96" t="s">
+        <v>13</v>
+      </c>
+      <c r="N96">
         <v>1.51</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" s="1"/>
-      <c r="E97">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97">
         <v>1726</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>78</v>
       </c>
-      <c r="G97" t="s">
-        <v>11</v>
-      </c>
       <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
         <v>94</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>68</v>
       </c>
-      <c r="J97" t="s">
-        <v>13</v>
-      </c>
       <c r="K97" t="s">
         <v>13</v>
       </c>
@@ -5166,72 +5330,74 @@
       <c r="M97" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D98" s="1"/>
-      <c r="E98">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98">
         <v>1726</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>78</v>
       </c>
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
       <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
         <v>95</v>
       </c>
-      <c r="I98" t="s">
-        <v>13</v>
-      </c>
       <c r="J98" t="s">
         <v>13</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="s">
+        <v>13</v>
+      </c>
+      <c r="L98">
         <v>7.08</v>
       </c>
-      <c r="L98" t="s">
-        <v>13</v>
-      </c>
       <c r="M98" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D99" s="1"/>
-      <c r="E99">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99">
         <v>1726</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>78</v>
       </c>
-      <c r="G99" t="s">
-        <v>11</v>
-      </c>
       <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
         <v>96</v>
       </c>
-      <c r="I99" t="s">
-        <v>13</v>
-      </c>
       <c r="J99" t="s">
         <v>13</v>
       </c>
@@ -5241,39 +5407,40 @@
       <c r="L99" t="s">
         <v>13</v>
       </c>
-      <c r="M99">
+      <c r="M99" t="s">
+        <v>13</v>
+      </c>
+      <c r="N99">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D100" s="1"/>
-      <c r="E100">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100">
         <v>1727</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>78</v>
       </c>
-      <c r="G100" t="s">
-        <v>11</v>
-      </c>
       <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" t="s">
         <v>97</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>57</v>
       </c>
-      <c r="J100" t="s">
-        <v>13</v>
-      </c>
       <c r="K100" t="s">
         <v>13</v>
       </c>
@@ -5283,72 +5450,74 @@
       <c r="M100" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D101" s="1"/>
-      <c r="E101">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101">
         <v>1727</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>78</v>
       </c>
-      <c r="G101" t="s">
-        <v>11</v>
-      </c>
       <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" t="s">
         <v>98</v>
       </c>
-      <c r="I101" t="s">
-        <v>13</v>
-      </c>
       <c r="J101" t="s">
         <v>13</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="s">
+        <v>13</v>
+      </c>
+      <c r="L101">
         <v>2.85</v>
       </c>
-      <c r="L101" t="s">
-        <v>13</v>
-      </c>
       <c r="M101" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D102" s="1"/>
-      <c r="E102">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102">
         <v>1727</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>78</v>
       </c>
-      <c r="G102" t="s">
-        <v>11</v>
-      </c>
       <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" t="s">
         <v>99</v>
       </c>
-      <c r="I102" t="s">
-        <v>13</v>
-      </c>
       <c r="J102" t="s">
         <v>13</v>
       </c>
@@ -5358,39 +5527,40 @@
       <c r="L102" t="s">
         <v>13</v>
       </c>
-      <c r="M102">
+      <c r="M102" t="s">
+        <v>13</v>
+      </c>
+      <c r="N102">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D103" s="1"/>
-      <c r="E103">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103">
         <v>1728</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>78</v>
       </c>
-      <c r="G103" t="s">
-        <v>11</v>
-      </c>
       <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" t="s">
         <v>100</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>53</v>
       </c>
-      <c r="J103" t="s">
-        <v>13</v>
-      </c>
       <c r="K103" t="s">
         <v>13</v>
       </c>
@@ -5400,72 +5570,74 @@
       <c r="M103" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D104" s="1"/>
-      <c r="E104">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104">
         <v>1728</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>78</v>
       </c>
-      <c r="G104" t="s">
-        <v>11</v>
-      </c>
       <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" t="s">
         <v>101</v>
       </c>
-      <c r="I104" t="s">
-        <v>13</v>
-      </c>
       <c r="J104" t="s">
         <v>13</v>
       </c>
-      <c r="K104">
+      <c r="K104" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104">
         <v>1.97</v>
       </c>
-      <c r="L104" t="s">
-        <v>13</v>
-      </c>
       <c r="M104" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D105" s="1"/>
-      <c r="E105">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105">
         <v>1728</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>78</v>
       </c>
-      <c r="G105" t="s">
-        <v>11</v>
-      </c>
       <c r="H105" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" t="s">
         <v>102</v>
       </c>
-      <c r="I105" t="s">
-        <v>13</v>
-      </c>
       <c r="J105" t="s">
         <v>13</v>
       </c>
@@ -5475,39 +5647,40 @@
       <c r="L105" t="s">
         <v>13</v>
       </c>
-      <c r="M105">
+      <c r="M105" t="s">
+        <v>13</v>
+      </c>
+      <c r="N105">
         <v>1.02</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D106" s="1"/>
-      <c r="E106">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106">
         <v>1729</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>74</v>
       </c>
-      <c r="G106" t="s">
-        <v>11</v>
-      </c>
       <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" t="s">
         <v>103</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>105</v>
       </c>
-      <c r="J106" t="s">
-        <v>13</v>
-      </c>
       <c r="K106" t="s">
         <v>13</v>
       </c>
@@ -5517,72 +5690,74 @@
       <c r="M106" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D107" s="1"/>
-      <c r="E107">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107">
         <v>1729</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>74</v>
       </c>
-      <c r="G107" t="s">
-        <v>11</v>
-      </c>
       <c r="H107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" t="s">
         <v>104</v>
       </c>
-      <c r="I107" t="s">
-        <v>13</v>
-      </c>
       <c r="J107" t="s">
         <v>13</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="s">
+        <v>13</v>
+      </c>
+      <c r="L107">
         <v>8.0500000000000007</v>
       </c>
-      <c r="L107" t="s">
-        <v>13</v>
-      </c>
       <c r="M107" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D108" s="1"/>
-      <c r="E108">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108">
         <v>1729</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>74</v>
       </c>
-      <c r="G108" t="s">
-        <v>11</v>
-      </c>
       <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" t="s">
         <v>105</v>
       </c>
-      <c r="I108" t="s">
-        <v>13</v>
-      </c>
       <c r="J108" t="s">
         <v>13</v>
       </c>
@@ -5592,39 +5767,40 @@
       <c r="L108" t="s">
         <v>13</v>
       </c>
-      <c r="M108">
+      <c r="M108" t="s">
+        <v>13</v>
+      </c>
+      <c r="N108">
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D109" s="1"/>
-      <c r="E109">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109">
         <v>1730</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>74</v>
       </c>
-      <c r="G109" t="s">
-        <v>11</v>
-      </c>
       <c r="H109" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" t="s">
         <v>106</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>74</v>
       </c>
-      <c r="J109" t="s">
-        <v>13</v>
-      </c>
       <c r="K109" t="s">
         <v>13</v>
       </c>
@@ -5634,72 +5810,74 @@
       <c r="M109" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D110" s="1"/>
-      <c r="E110">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110">
         <v>1730</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>74</v>
       </c>
-      <c r="G110" t="s">
-        <v>11</v>
-      </c>
       <c r="H110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" t="s">
         <v>107</v>
       </c>
-      <c r="I110" t="s">
-        <v>13</v>
-      </c>
       <c r="J110" t="s">
         <v>13</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="s">
+        <v>13</v>
+      </c>
+      <c r="L110">
         <v>4.3899999999999997</v>
       </c>
-      <c r="L110" t="s">
-        <v>13</v>
-      </c>
       <c r="M110" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D111" s="1"/>
-      <c r="E111">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111">
         <v>1730</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>74</v>
       </c>
-      <c r="G111" t="s">
-        <v>11</v>
-      </c>
       <c r="H111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" t="s">
         <v>108</v>
       </c>
-      <c r="I111" t="s">
-        <v>13</v>
-      </c>
       <c r="J111" t="s">
         <v>13</v>
       </c>
@@ -5709,39 +5887,40 @@
       <c r="L111" t="s">
         <v>13</v>
       </c>
-      <c r="M111">
+      <c r="M111" t="s">
+        <v>13</v>
+      </c>
+      <c r="N111">
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D112" s="1"/>
-      <c r="E112">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112">
         <v>1731</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>74</v>
       </c>
-      <c r="G112" t="s">
-        <v>11</v>
-      </c>
       <c r="H112" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" t="s">
         <v>109</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>63</v>
       </c>
-      <c r="J112" t="s">
-        <v>13</v>
-      </c>
       <c r="K112" t="s">
         <v>13</v>
       </c>
@@ -5751,72 +5930,74 @@
       <c r="M112" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D113" s="1"/>
-      <c r="E113">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113">
         <v>1731</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>74</v>
       </c>
-      <c r="G113" t="s">
-        <v>11</v>
-      </c>
       <c r="H113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" t="s">
         <v>110</v>
       </c>
-      <c r="I113" t="s">
-        <v>13</v>
-      </c>
       <c r="J113" t="s">
         <v>13</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="s">
+        <v>13</v>
+      </c>
+      <c r="L113">
         <v>3.44</v>
       </c>
-      <c r="L113" t="s">
-        <v>13</v>
-      </c>
       <c r="M113" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D114" s="1"/>
-      <c r="E114">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114">
         <v>1731</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>74</v>
       </c>
-      <c r="G114" t="s">
-        <v>11</v>
-      </c>
       <c r="H114" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" t="s">
         <v>111</v>
       </c>
-      <c r="I114" t="s">
-        <v>13</v>
-      </c>
       <c r="J114" t="s">
         <v>13</v>
       </c>
@@ -5826,39 +6007,40 @@
       <c r="L114" t="s">
         <v>13</v>
       </c>
-      <c r="M114">
+      <c r="M114" t="s">
+        <v>13</v>
+      </c>
+      <c r="N114">
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D115" s="1"/>
-      <c r="E115">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115">
         <v>1712</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>78</v>
       </c>
-      <c r="G115" t="s">
-        <v>11</v>
-      </c>
       <c r="H115" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" t="s">
         <v>112</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>60</v>
       </c>
-      <c r="J115" t="s">
-        <v>13</v>
-      </c>
       <c r="K115" t="s">
         <v>13</v>
       </c>
@@ -5868,72 +6050,74 @@
       <c r="M115" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D116" s="1"/>
-      <c r="E116">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116">
         <v>1712</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>78</v>
       </c>
-      <c r="G116" t="s">
-        <v>11</v>
-      </c>
       <c r="H116" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" t="s">
         <v>113</v>
       </c>
-      <c r="I116" t="s">
-        <v>13</v>
-      </c>
       <c r="J116" t="s">
         <v>13</v>
       </c>
-      <c r="K116">
+      <c r="K116" t="s">
+        <v>13</v>
+      </c>
+      <c r="L116">
         <v>2.88</v>
       </c>
-      <c r="L116" t="s">
-        <v>13</v>
-      </c>
       <c r="M116" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D117" s="1"/>
-      <c r="E117">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117">
         <v>1712</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>78</v>
       </c>
-      <c r="G117" t="s">
-        <v>11</v>
-      </c>
       <c r="H117" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" t="s">
         <v>114</v>
       </c>
-      <c r="I117" t="s">
-        <v>13</v>
-      </c>
       <c r="J117" t="s">
         <v>13</v>
       </c>
@@ -5943,39 +6127,40 @@
       <c r="L117" t="s">
         <v>13</v>
       </c>
-      <c r="M117">
+      <c r="M117" t="s">
+        <v>13</v>
+      </c>
+      <c r="N117">
         <v>1.37</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D118" s="1"/>
-      <c r="E118">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118">
         <v>1713</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>78</v>
       </c>
-      <c r="G118" t="s">
-        <v>11</v>
-      </c>
       <c r="H118" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" t="s">
         <v>115</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>130</v>
       </c>
-      <c r="J118" t="s">
-        <v>13</v>
-      </c>
       <c r="K118" t="s">
         <v>13</v>
       </c>
@@ -5985,72 +6170,74 @@
       <c r="M118" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119">
         <v>1713</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>78</v>
       </c>
-      <c r="G119" t="s">
-        <v>11</v>
-      </c>
       <c r="H119" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" t="s">
         <v>116</v>
       </c>
-      <c r="I119" t="s">
-        <v>13</v>
-      </c>
       <c r="J119" t="s">
         <v>13</v>
       </c>
-      <c r="K119">
+      <c r="K119" t="s">
+        <v>13</v>
+      </c>
+      <c r="L119">
         <v>5.18</v>
       </c>
-      <c r="L119" t="s">
-        <v>13</v>
-      </c>
       <c r="M119" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120">
         <v>1713</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>78</v>
       </c>
-      <c r="G120" t="s">
-        <v>11</v>
-      </c>
       <c r="H120" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" t="s">
         <v>117</v>
       </c>
-      <c r="I120" t="s">
-        <v>13</v>
-      </c>
       <c r="J120" t="s">
         <v>13</v>
       </c>
@@ -6060,39 +6247,40 @@
       <c r="L120" t="s">
         <v>13</v>
       </c>
-      <c r="M120">
+      <c r="M120" t="s">
+        <v>13</v>
+      </c>
+      <c r="N120">
         <v>1.55</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D121" s="1"/>
-      <c r="E121">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121">
         <v>1714</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>78</v>
       </c>
-      <c r="G121" t="s">
-        <v>11</v>
-      </c>
       <c r="H121" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" t="s">
         <v>118</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>150</v>
       </c>
-      <c r="J121" t="s">
-        <v>13</v>
-      </c>
       <c r="K121" t="s">
         <v>13</v>
       </c>
@@ -6102,72 +6290,74 @@
       <c r="M121" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D122" s="1"/>
-      <c r="E122">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122">
         <v>1714</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>78</v>
       </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
       <c r="H122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" t="s">
         <v>119</v>
       </c>
-      <c r="I122" t="s">
-        <v>13</v>
-      </c>
       <c r="J122" t="s">
         <v>13</v>
       </c>
-      <c r="K122">
+      <c r="K122" t="s">
+        <v>13</v>
+      </c>
+      <c r="L122">
         <v>8.27</v>
       </c>
-      <c r="L122" t="s">
-        <v>13</v>
-      </c>
       <c r="M122" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D123" s="1"/>
-      <c r="E123">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123">
         <v>1714</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>78</v>
       </c>
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
       <c r="H123" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" t="s">
         <v>120</v>
       </c>
-      <c r="I123" t="s">
-        <v>13</v>
-      </c>
       <c r="J123" t="s">
         <v>13</v>
       </c>
@@ -6177,39 +6367,40 @@
       <c r="L123" t="s">
         <v>13</v>
       </c>
-      <c r="M123">
+      <c r="M123" t="s">
+        <v>13</v>
+      </c>
+      <c r="N123">
         <v>1.28</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D124" s="1"/>
-      <c r="E124">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124">
         <v>1715</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>78</v>
       </c>
-      <c r="G124" t="s">
-        <v>11</v>
-      </c>
       <c r="H124" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" t="s">
         <v>121</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>120</v>
       </c>
-      <c r="J124" t="s">
-        <v>13</v>
-      </c>
       <c r="K124" t="s">
         <v>13</v>
       </c>
@@ -6219,72 +6410,74 @@
       <c r="M124" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D125" s="1"/>
-      <c r="E125">
+      <c r="C125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125">
         <v>1715</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>78</v>
       </c>
-      <c r="G125" t="s">
-        <v>11</v>
-      </c>
       <c r="H125" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" t="s">
         <v>122</v>
       </c>
-      <c r="I125" t="s">
-        <v>13</v>
-      </c>
       <c r="J125" t="s">
         <v>13</v>
       </c>
-      <c r="K125">
+      <c r="K125" t="s">
+        <v>13</v>
+      </c>
+      <c r="L125">
         <v>7.25</v>
       </c>
-      <c r="L125" t="s">
-        <v>13</v>
-      </c>
       <c r="M125" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D126" s="1"/>
-      <c r="E126">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126">
         <v>1715</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>78</v>
       </c>
-      <c r="G126" t="s">
-        <v>11</v>
-      </c>
       <c r="H126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" t="s">
         <v>123</v>
       </c>
-      <c r="I126" t="s">
-        <v>13</v>
-      </c>
       <c r="J126" t="s">
         <v>13</v>
       </c>
@@ -6294,38 +6487,39 @@
       <c r="L126" t="s">
         <v>13</v>
       </c>
-      <c r="M126">
+      <c r="M126" t="s">
+        <v>13</v>
+      </c>
+      <c r="N126">
         <v>1.86</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D127" s="1"/>
-      <c r="E127">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127">
         <v>1716</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>124</v>
       </c>
-      <c r="G127" t="s">
-        <v>11</v>
-      </c>
       <c r="H127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" t="s">
         <v>125</v>
       </c>
-      <c r="I127">
-        <v>180</v>
-      </c>
-      <c r="J127" t="s">
-        <v>13</v>
+      <c r="J127">
+        <v>180</v>
       </c>
       <c r="K127" t="s">
         <v>13</v>
@@ -6336,72 +6530,74 @@
       <c r="M127" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D128" s="1"/>
-      <c r="E128">
+      <c r="C128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128">
         <v>1716</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>124</v>
       </c>
-      <c r="G128" t="s">
-        <v>11</v>
-      </c>
       <c r="H128" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" t="s">
         <v>126</v>
       </c>
-      <c r="I128" t="s">
-        <v>13</v>
-      </c>
       <c r="J128" t="s">
         <v>13</v>
       </c>
-      <c r="K128">
+      <c r="K128" t="s">
+        <v>13</v>
+      </c>
+      <c r="L128">
         <v>10.1</v>
       </c>
-      <c r="L128" t="s">
-        <v>13</v>
-      </c>
       <c r="M128" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D129" s="1"/>
-      <c r="E129">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129">
         <v>1716</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>124</v>
       </c>
-      <c r="G129" t="s">
-        <v>11</v>
-      </c>
       <c r="H129" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" t="s">
         <v>127</v>
       </c>
-      <c r="I129" t="s">
-        <v>13</v>
-      </c>
       <c r="J129" t="s">
         <v>13</v>
       </c>
@@ -6411,39 +6607,40 @@
       <c r="L129" t="s">
         <v>13</v>
       </c>
-      <c r="M129">
+      <c r="M129" t="s">
+        <v>13</v>
+      </c>
+      <c r="N129">
         <v>2.42</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130">
+      <c r="C130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130">
         <v>1717</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>124</v>
       </c>
-      <c r="G130" t="s">
-        <v>11</v>
-      </c>
       <c r="H130" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" t="s">
         <v>128</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>140</v>
       </c>
-      <c r="J130" t="s">
-        <v>13</v>
-      </c>
       <c r="K130" t="s">
         <v>13</v>
       </c>
@@ -6453,72 +6650,74 @@
       <c r="M130" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D131" s="1"/>
-      <c r="E131">
+      <c r="C131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131">
         <v>1717</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>124</v>
       </c>
-      <c r="G131" t="s">
-        <v>11</v>
-      </c>
       <c r="H131" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" t="s">
         <v>129</v>
       </c>
-      <c r="I131" t="s">
-        <v>13</v>
-      </c>
       <c r="J131" t="s">
         <v>13</v>
       </c>
-      <c r="K131">
+      <c r="K131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L131">
         <v>8.6199999999999992</v>
       </c>
-      <c r="L131" t="s">
-        <v>13</v>
-      </c>
       <c r="M131" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D132" s="1"/>
-      <c r="E132">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132">
         <v>1717</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>124</v>
       </c>
-      <c r="G132" t="s">
-        <v>11</v>
-      </c>
       <c r="H132" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" t="s">
         <v>130</v>
       </c>
-      <c r="I132" t="s">
-        <v>13</v>
-      </c>
       <c r="J132" t="s">
         <v>13</v>
       </c>
@@ -6528,39 +6727,40 @@
       <c r="L132" t="s">
         <v>13</v>
       </c>
-      <c r="M132">
+      <c r="M132" t="s">
+        <v>13</v>
+      </c>
+      <c r="N132">
         <v>1.84</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D133" s="1"/>
-      <c r="E133">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133">
         <v>1718</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>124</v>
       </c>
-      <c r="G133" t="s">
-        <v>11</v>
-      </c>
       <c r="H133" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" t="s">
         <v>131</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>150</v>
       </c>
-      <c r="J133" t="s">
-        <v>13</v>
-      </c>
       <c r="K133" t="s">
         <v>13</v>
       </c>
@@ -6570,72 +6770,74 @@
       <c r="M133" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D134" s="1"/>
-      <c r="E134">
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134">
         <v>1718</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>124</v>
       </c>
-      <c r="G134" t="s">
-        <v>11</v>
-      </c>
       <c r="H134" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" t="s">
         <v>132</v>
       </c>
-      <c r="I134" t="s">
-        <v>13</v>
-      </c>
       <c r="J134" t="s">
         <v>13</v>
       </c>
-      <c r="K134">
+      <c r="K134" t="s">
+        <v>13</v>
+      </c>
+      <c r="L134">
         <v>13.1</v>
       </c>
-      <c r="L134" t="s">
-        <v>13</v>
-      </c>
       <c r="M134" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D135" s="1"/>
-      <c r="E135">
+      <c r="C135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135">
         <v>1718</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>124</v>
       </c>
-      <c r="G135" t="s">
-        <v>11</v>
-      </c>
       <c r="H135" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" t="s">
         <v>133</v>
       </c>
-      <c r="I135" t="s">
-        <v>13</v>
-      </c>
       <c r="J135" t="s">
         <v>13</v>
       </c>
@@ -6645,39 +6847,40 @@
       <c r="L135" t="s">
         <v>13</v>
       </c>
-      <c r="M135">
+      <c r="M135" t="s">
+        <v>13</v>
+      </c>
+      <c r="N135">
         <v>1.52</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D136" s="1"/>
-      <c r="E136">
+      <c r="C136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136">
         <v>1719</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>124</v>
       </c>
-      <c r="G136" t="s">
-        <v>11</v>
-      </c>
       <c r="H136" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" t="s">
         <v>134</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>150</v>
       </c>
-      <c r="J136" t="s">
-        <v>13</v>
-      </c>
       <c r="K136" t="s">
         <v>13</v>
       </c>
@@ -6687,72 +6890,74 @@
       <c r="M136" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D137" s="1"/>
-      <c r="E137">
+      <c r="C137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137">
         <v>1719</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>124</v>
       </c>
-      <c r="G137" t="s">
-        <v>11</v>
-      </c>
       <c r="H137" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" t="s">
         <v>135</v>
       </c>
-      <c r="I137" t="s">
-        <v>13</v>
-      </c>
       <c r="J137" t="s">
         <v>13</v>
       </c>
-      <c r="K137">
+      <c r="K137" t="s">
+        <v>13</v>
+      </c>
+      <c r="L137">
         <v>8.56</v>
       </c>
-      <c r="L137" t="s">
-        <v>13</v>
-      </c>
       <c r="M137" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D138" s="1"/>
-      <c r="E138">
+      <c r="C138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138">
         <v>1719</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>124</v>
       </c>
-      <c r="G138" t="s">
-        <v>11</v>
-      </c>
       <c r="H138" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" t="s">
         <v>136</v>
       </c>
-      <c r="I138" t="s">
-        <v>13</v>
-      </c>
       <c r="J138" t="s">
         <v>13</v>
       </c>
@@ -6762,39 +6967,40 @@
       <c r="L138" t="s">
         <v>13</v>
       </c>
-      <c r="M138">
+      <c r="M138" t="s">
+        <v>13</v>
+      </c>
+      <c r="N138">
         <v>2.1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D139" s="1"/>
-      <c r="E139">
+      <c r="C139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139">
         <v>1720</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>124</v>
       </c>
-      <c r="G139" t="s">
-        <v>11</v>
-      </c>
       <c r="H139" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" t="s">
         <v>137</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>100</v>
       </c>
-      <c r="J139" t="s">
-        <v>13</v>
-      </c>
       <c r="K139" t="s">
         <v>13</v>
       </c>
@@ -6804,72 +7010,74 @@
       <c r="M139" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D140" s="1"/>
-      <c r="E140">
+      <c r="C140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140">
         <v>1720</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>124</v>
       </c>
-      <c r="G140" t="s">
-        <v>11</v>
-      </c>
       <c r="H140" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" t="s">
         <v>138</v>
       </c>
-      <c r="I140" t="s">
-        <v>13</v>
-      </c>
       <c r="J140" t="s">
         <v>13</v>
       </c>
-      <c r="K140">
+      <c r="K140" t="s">
+        <v>13</v>
+      </c>
+      <c r="L140">
         <v>4.54</v>
       </c>
-      <c r="L140" t="s">
-        <v>13</v>
-      </c>
       <c r="M140" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D141" s="1"/>
-      <c r="E141">
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141">
         <v>1720</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>124</v>
       </c>
-      <c r="G141" t="s">
-        <v>11</v>
-      </c>
       <c r="H141" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" t="s">
         <v>139</v>
       </c>
-      <c r="I141" t="s">
-        <v>13</v>
-      </c>
       <c r="J141" t="s">
         <v>13</v>
       </c>
@@ -6879,11 +7087,14 @@
       <c r="L141" t="s">
         <v>13</v>
       </c>
-      <c r="M141">
+      <c r="M141" t="s">
+        <v>13</v>
+      </c>
+      <c r="N141">
         <v>1.43</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>176</v>
       </c>
@@ -6894,37 +7105,40 @@
         <v>179</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>1862</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>140</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>141</v>
       </c>
-      <c r="H142" t="s">
-        <v>13</v>
-      </c>
       <c r="I142" t="s">
         <v>13</v>
       </c>
       <c r="J142" t="s">
         <v>13</v>
       </c>
-      <c r="K142">
+      <c r="K142" t="s">
+        <v>13</v>
+      </c>
+      <c r="L142">
         <v>4</v>
       </c>
-      <c r="L142" t="s">
-        <v>13</v>
-      </c>
-      <c r="M142">
+      <c r="M142" t="s">
+        <v>13</v>
+      </c>
+      <c r="N142">
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>177</v>
       </c>
@@ -6932,38 +7146,41 @@
         <v>202</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D143" s="1"/>
-      <c r="E143">
+      <c r="E143" s="1"/>
+      <c r="F143">
         <v>2006</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>142</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>141</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>143</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>129.5</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>0.73</v>
       </c>
-      <c r="K143">
+      <c r="L143">
         <v>2.1126999999999998</v>
       </c>
-      <c r="L143">
+      <c r="M143">
         <v>18.16</v>
       </c>
-      <c r="M143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>177</v>
       </c>
@@ -6971,38 +7188,41 @@
         <v>202</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D144" s="1"/>
-      <c r="E144">
+      <c r="E144" s="1"/>
+      <c r="F144">
         <v>2007</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>144</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>141</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>143</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>78.3</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K144">
+      <c r="L144">
         <v>1.1207</v>
       </c>
-      <c r="L144">
+      <c r="M144">
         <v>20.46</v>
       </c>
-      <c r="M144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>177</v>
       </c>
@@ -7010,38 +7230,41 @@
         <v>202</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D145" s="1"/>
-      <c r="E145">
+      <c r="E145" s="1"/>
+      <c r="F145">
         <v>2008</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>145</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>141</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>143</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>228.1</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>1.26</v>
       </c>
-      <c r="K145">
+      <c r="L145">
         <v>2.2887</v>
       </c>
-      <c r="L145">
+      <c r="M145">
         <v>17.97</v>
       </c>
-      <c r="M145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>177</v>
       </c>
@@ -7049,38 +7272,41 @@
         <v>202</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D146" s="1"/>
-      <c r="E146">
+      <c r="E146" s="1"/>
+      <c r="F146">
         <v>2009</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>146</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>141</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>143</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>22.5</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>0.25</v>
       </c>
-      <c r="K146">
+      <c r="L146">
         <v>5.4431000000000003</v>
       </c>
-      <c r="L146">
+      <c r="M146">
         <v>15.06</v>
       </c>
-      <c r="M146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>177</v>
       </c>
@@ -7088,38 +7314,41 @@
         <v>202</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D147" s="1"/>
-      <c r="E147">
+      <c r="E147" s="1"/>
+      <c r="F147">
         <v>2010</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>147</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>141</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>148</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>30.5</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>2.52</v>
       </c>
-      <c r="K147">
+      <c r="L147">
         <v>6.89</v>
       </c>
-      <c r="L147">
+      <c r="M147">
         <v>15.35</v>
       </c>
-      <c r="M147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>177</v>
       </c>
@@ -7127,38 +7356,41 @@
         <v>202</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D148" s="1"/>
-      <c r="E148">
+      <c r="E148" s="1"/>
+      <c r="F148">
         <v>2011</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>149</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>141</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>150</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>31.8</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>1.89</v>
       </c>
-      <c r="K148">
+      <c r="L148">
         <v>6.1886000000000001</v>
       </c>
-      <c r="L148">
+      <c r="M148">
         <v>18.55</v>
       </c>
-      <c r="M148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>177</v>
       </c>
@@ -7166,38 +7398,41 @@
         <v>202</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D149" s="1"/>
-      <c r="E149">
+      <c r="E149" s="1"/>
+      <c r="F149">
         <v>2012</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>151</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>141</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>143</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>412.3</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>2.44</v>
       </c>
-      <c r="K149">
+      <c r="L149">
         <v>15.4185</v>
       </c>
-      <c r="L149">
+      <c r="M149">
         <v>19.3</v>
       </c>
-      <c r="M149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>177</v>
       </c>
@@ -7205,38 +7440,41 @@
         <v>202</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D150" s="1"/>
-      <c r="E150">
+      <c r="E150" s="1"/>
+      <c r="F150">
         <v>2013</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>152</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>143</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>458.5</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>2.6</v>
       </c>
-      <c r="K150">
+      <c r="L150">
         <v>1.7529999999999999</v>
       </c>
-      <c r="L150">
+      <c r="M150">
         <v>20.18</v>
       </c>
-      <c r="M150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>177</v>
       </c>
@@ -7244,506 +7482,528 @@
         <v>202</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D151" s="1"/>
-      <c r="E151">
+      <c r="E151" s="1"/>
+      <c r="F151">
         <v>2014</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>153</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>141</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>154</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>615</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>1.23</v>
       </c>
-      <c r="K151">
+      <c r="L151">
         <v>10.961</v>
       </c>
-      <c r="L151">
+      <c r="M151">
         <v>18.14</v>
       </c>
-      <c r="M151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="1"/>
+      <c r="D152" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D152" s="1"/>
-      <c r="E152">
+      <c r="E152" s="1"/>
+      <c r="F152">
         <v>2015</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>155</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>15</v>
       </c>
-      <c r="H152" t="s">
+      <c r="I152" t="s">
         <v>150</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>91.7</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>0.67</v>
       </c>
-      <c r="K152">
+      <c r="L152">
         <v>3.3687</v>
       </c>
-      <c r="L152">
+      <c r="M152">
         <v>18.73</v>
       </c>
-      <c r="M152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="1"/>
+      <c r="D153" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D153" s="1"/>
-      <c r="E153">
+      <c r="E153" s="1"/>
+      <c r="F153">
         <v>2016</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>156</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>15</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>150</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>375.9</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <v>0.64</v>
       </c>
-      <c r="K153">
+      <c r="L153">
         <v>15.63</v>
       </c>
-      <c r="L153">
+      <c r="M153">
         <v>10.78</v>
       </c>
-      <c r="M153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="1"/>
+      <c r="D154" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D154" s="1"/>
-      <c r="E154">
+      <c r="E154" s="1"/>
+      <c r="F154">
         <v>2017</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>157</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>15</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>150</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>44.2</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <v>0.91</v>
       </c>
-      <c r="K154">
+      <c r="L154">
         <v>14.128500000000001</v>
       </c>
-      <c r="L154">
+      <c r="M154">
         <v>18.41</v>
       </c>
-      <c r="M154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="1"/>
+      <c r="D155" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D155" s="1"/>
-      <c r="E155">
+      <c r="E155" s="1"/>
+      <c r="F155">
         <v>2018</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>158</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>15</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>150</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>55.1</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <v>0.63</v>
       </c>
-      <c r="K155">
+      <c r="L155">
         <v>0.93200000000000005</v>
       </c>
-      <c r="L155">
+      <c r="M155">
         <v>19.95</v>
       </c>
-      <c r="M155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="1"/>
+      <c r="D156" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D156" s="1"/>
-      <c r="E156">
+      <c r="E156" s="1"/>
+      <c r="F156">
         <v>2019</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>159</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>15</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>150</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>71.599999999999994</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <v>1.07</v>
       </c>
-      <c r="K156">
+      <c r="L156">
         <v>5.2017499999999997</v>
       </c>
-      <c r="L156">
+      <c r="M156">
         <v>20.309999999999999</v>
       </c>
-      <c r="M156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="1"/>
+      <c r="D157" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D157" s="1"/>
-      <c r="E157">
+      <c r="E157" s="1"/>
+      <c r="F157">
         <v>2020</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>160</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>15</v>
       </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>143</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>82.1</v>
       </c>
-      <c r="J157">
+      <c r="K157">
         <v>0.95</v>
       </c>
-      <c r="K157">
+      <c r="L157">
         <v>8.2588000000000008</v>
       </c>
-      <c r="L157">
+      <c r="M157">
         <v>19.73</v>
       </c>
-      <c r="M157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="1"/>
+      <c r="D158" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D158" s="1"/>
-      <c r="E158">
+      <c r="E158" s="1"/>
+      <c r="F158">
         <v>2021</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>161</v>
       </c>
-      <c r="G158" t="s">
-        <v>11</v>
-      </c>
       <c r="H158" t="s">
+        <v>11</v>
+      </c>
+      <c r="I158" t="s">
         <v>150</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>54.6</v>
       </c>
-      <c r="J158">
+      <c r="K158">
         <v>1.56</v>
       </c>
-      <c r="K158">
+      <c r="L158">
         <v>12.387600000000001</v>
       </c>
-      <c r="L158">
+      <c r="M158">
         <v>15.59</v>
       </c>
-      <c r="M158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="1"/>
+      <c r="D159" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D159" s="1"/>
-      <c r="E159">
+      <c r="E159" s="1"/>
+      <c r="F159">
         <v>2022</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
         <v>162</v>
       </c>
-      <c r="G159" t="s">
-        <v>11</v>
-      </c>
       <c r="H159" t="s">
+        <v>11</v>
+      </c>
+      <c r="I159" t="s">
         <v>150</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>12.5</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <v>2.63</v>
       </c>
-      <c r="K159">
+      <c r="L159">
         <v>10.728899999999999</v>
       </c>
-      <c r="L159">
+      <c r="M159">
         <v>11.38</v>
       </c>
-      <c r="M159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="1"/>
+      <c r="D160" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D160" s="1"/>
-      <c r="E160">
+      <c r="E160" s="1"/>
+      <c r="F160">
         <v>2023</v>
       </c>
-      <c r="F160" t="s">
+      <c r="G160" t="s">
         <v>163</v>
       </c>
-      <c r="G160" t="s">
-        <v>11</v>
-      </c>
       <c r="H160" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160" t="s">
         <v>150</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>44.2</v>
       </c>
-      <c r="J160">
+      <c r="K160">
         <v>0.76</v>
       </c>
-      <c r="K160">
+      <c r="L160">
         <v>7.4363999999999999</v>
       </c>
-      <c r="L160">
+      <c r="M160">
         <v>13.09</v>
       </c>
-      <c r="M160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="1"/>
+      <c r="D161" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D161" s="1"/>
-      <c r="E161">
+      <c r="E161" s="1"/>
+      <c r="F161">
         <v>2024</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>164</v>
       </c>
-      <c r="G161" t="s">
-        <v>11</v>
-      </c>
       <c r="H161" t="s">
+        <v>11</v>
+      </c>
+      <c r="I161" t="s">
         <v>150</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>36</v>
       </c>
-      <c r="J161">
+      <c r="K161">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K161">
+      <c r="L161">
         <v>7.2805</v>
       </c>
-      <c r="L161">
+      <c r="M161">
         <v>14.59</v>
       </c>
-      <c r="M161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="1"/>
+      <c r="D162" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D162" s="1"/>
-      <c r="E162">
+      <c r="E162" s="1"/>
+      <c r="F162">
         <v>2025</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>165</v>
       </c>
-      <c r="G162" t="s">
-        <v>11</v>
-      </c>
       <c r="H162" t="s">
+        <v>11</v>
+      </c>
+      <c r="I162" t="s">
         <v>148</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>125.5</v>
       </c>
-      <c r="J162">
+      <c r="K162">
         <v>2.54</v>
       </c>
-      <c r="K162">
+      <c r="L162">
         <v>4.6646999999999998</v>
       </c>
-      <c r="L162">
+      <c r="M162">
         <v>21.08</v>
       </c>
-      <c r="M162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="1"/>
+      <c r="D163" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D163" s="1"/>
-      <c r="E163">
+      <c r="E163" s="1"/>
+      <c r="F163">
         <v>2026</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>166</v>
       </c>
-      <c r="G163" t="s">
-        <v>11</v>
-      </c>
       <c r="H163" t="s">
+        <v>11</v>
+      </c>
+      <c r="I163" t="s">
         <v>150</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>1717.4</v>
       </c>
-      <c r="J163">
+      <c r="K163">
         <v>0.84</v>
       </c>
-      <c r="K163">
+      <c r="L163">
         <v>15.710699999999999</v>
       </c>
-      <c r="L163">
+      <c r="M163">
         <v>11.79</v>
       </c>
-      <c r="M163" t="s">
+      <c r="N163" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N163">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Finfish"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>